--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_11_40.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_11_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3842657.55531183</v>
+        <v>3839670.545179283</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8312237.378497212</v>
+        <v>8312237.378497217</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>211235.9319057397</v>
+        <v>211235.9319057399</v>
       </c>
     </row>
     <row r="9">
@@ -661,16 +661,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.487951988786145</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
         <v>15.30273751513505</v>
-      </c>
-      <c r="D2" t="n">
-        <v>15.30273751513505</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>13.47865120333094</v>
       </c>
       <c r="G2" t="n">
         <v>15.30273751513505</v>
@@ -703,10 +703,10 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -755,7 +755,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="I3" t="n">
         <v>15.30273751513505</v>
@@ -791,16 +791,16 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
         <v>12.73205987707308</v>
       </c>
-      <c r="U3" t="n">
-        <v>0</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0</v>
-      </c>
       <c r="W3" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -825,22 +825,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>13.47865120333094</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="I4" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>10.75721046822444</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -858,10 +858,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -882,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -904,10 +904,10 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>6.84140014930867</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="G5" t="n">
         <v>15.30273751513505</v>
@@ -919,7 +919,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -943,13 +943,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>11.91464376220976</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -986,16 +986,16 @@
         <v>15.30273751513505</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="G6" t="n">
-        <v>12.73205987707308</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -1022,13 +1022,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>12.73205987707308</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1043,7 +1043,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1056,28 +1056,28 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
         <v>15.30273751513505</v>
       </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
       <c r="J7" t="n">
-        <v>15.30273751513505</v>
+        <v>10.75721046822444</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,16 +1098,16 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>10.75721046822443</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1144,10 +1144,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>26.59788277992273</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="G8" t="n">
-        <v>15.30273751513505</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1180,20 +1180,20 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
         <v>27.59002526031614</v>
       </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>27.59002526031614</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>2.361305680129117</v>
       </c>
     </row>
     <row r="9">
@@ -1220,7 +1220,7 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>23.55470292302859</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -1229,7 +1229,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>27.59002526031614</v>
@@ -1259,14 +1259,14 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
         <v>27.59002526031614</v>
       </c>
-      <c r="S9" t="n">
-        <v>0</v>
-      </c>
-      <c r="T9" t="n">
-        <v>0</v>
-      </c>
       <c r="U9" t="n">
         <v>0</v>
       </c>
@@ -1274,10 +1274,10 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>23.55470292302859</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1290,13 +1290,13 @@
         </is>
       </c>
       <c r="B10" t="n">
+        <v>25.04785205983618</v>
+      </c>
+      <c r="C10" t="n">
         <v>27.59002526031614</v>
       </c>
-      <c r="C10" t="n">
-        <v>0</v>
-      </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1314,10 +1314,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1335,10 +1335,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>19.72731862540289</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1369,19 +1369,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>332.4504621406169</v>
+        <v>332.450462140617</v>
       </c>
       <c r="C11" t="n">
         <v>314.9895122481439</v>
       </c>
       <c r="D11" t="n">
-        <v>304.3996620978193</v>
+        <v>304.3996620978194</v>
       </c>
       <c r="E11" t="n">
-        <v>331.6469905493981</v>
+        <v>331.6469905493982</v>
       </c>
       <c r="F11" t="n">
-        <v>356.5926662188478</v>
+        <v>356.5926662188479</v>
       </c>
       <c r="G11" t="n">
         <v>360.8014054759329</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>62.62009709731727</v>
+        <v>62.62009709731768</v>
       </c>
       <c r="T11" t="n">
         <v>154.3483829009958</v>
       </c>
       <c r="U11" t="n">
-        <v>200.7248371836656</v>
+        <v>200.724837183666</v>
       </c>
       <c r="V11" t="n">
         <v>277.4688789472713</v>
@@ -1533,22 +1533,22 @@
         <v>116.9634415757642</v>
       </c>
       <c r="D13" t="n">
-        <v>98.33209349534873</v>
+        <v>98.33209349534874</v>
       </c>
       <c r="E13" t="n">
-        <v>96.15058312370554</v>
+        <v>96.15058312370556</v>
       </c>
       <c r="F13" t="n">
-        <v>95.13766850006762</v>
+        <v>95.13766850006763</v>
       </c>
       <c r="G13" t="n">
-        <v>115.815571544967</v>
+        <v>115.8155715449671</v>
       </c>
       <c r="H13" t="n">
-        <v>95.1219414551735</v>
+        <v>95.12194145517353</v>
       </c>
       <c r="I13" t="n">
-        <v>48.26864462805185</v>
+        <v>48.26864462805199</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>41.93753980479215</v>
+        <v>41.93753980479217</v>
       </c>
       <c r="S13" t="n">
         <v>140.7603254856174</v>
@@ -1587,7 +1587,7 @@
         <v>235.9324482905021</v>
       </c>
       <c r="V13" t="n">
-        <v>201.854263800965</v>
+        <v>201.8542638009644</v>
       </c>
       <c r="W13" t="n">
         <v>236.2396188137274</v>
@@ -1596,7 +1596,7 @@
         <v>175.4262758661735</v>
       </c>
       <c r="Y13" t="n">
-        <v>168.3012738292311</v>
+        <v>168.3012738292312</v>
       </c>
     </row>
     <row r="14">
@@ -1606,22 +1606,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>332.4504621406169</v>
+        <v>332.450462140617</v>
       </c>
       <c r="C14" t="n">
         <v>314.9895122481439</v>
       </c>
       <c r="D14" t="n">
-        <v>304.3996620978193</v>
+        <v>304.3996620978194</v>
       </c>
       <c r="E14" t="n">
-        <v>331.6469905493981</v>
+        <v>331.6469905493982</v>
       </c>
       <c r="F14" t="n">
-        <v>356.5926662188478</v>
+        <v>356.5926662188479</v>
       </c>
       <c r="G14" t="n">
-        <v>360.8014054759329</v>
+        <v>360.8014054759331</v>
       </c>
       <c r="H14" t="n">
         <v>245.9943163849515</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>62.62009709731723</v>
+        <v>62.62009709731728</v>
       </c>
       <c r="T14" t="n">
         <v>154.3483829009958</v>
       </c>
       <c r="U14" t="n">
-        <v>200.7248371836665</v>
+        <v>200.7248371836658</v>
       </c>
       <c r="V14" t="n">
         <v>277.4688789472713</v>
@@ -1770,22 +1770,22 @@
         <v>116.9634415757642</v>
       </c>
       <c r="D16" t="n">
-        <v>98.33209349534873</v>
+        <v>98.33209349534874</v>
       </c>
       <c r="E16" t="n">
-        <v>96.15058312370554</v>
+        <v>96.15058312370556</v>
       </c>
       <c r="F16" t="n">
-        <v>95.13766850006762</v>
+        <v>95.13766850006763</v>
       </c>
       <c r="G16" t="n">
-        <v>115.815571544967</v>
+        <v>115.8155715449671</v>
       </c>
       <c r="H16" t="n">
-        <v>95.1219414551735</v>
+        <v>95.12194145517353</v>
       </c>
       <c r="I16" t="n">
-        <v>48.26864462805185</v>
+        <v>48.26864462805172</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>41.93753980479215</v>
+        <v>41.93753980479217</v>
       </c>
       <c r="S16" t="n">
         <v>140.7603254856174</v>
@@ -1827,13 +1827,13 @@
         <v>201.8542638009644</v>
       </c>
       <c r="W16" t="n">
-        <v>236.239618813728</v>
+        <v>236.2396188137274</v>
       </c>
       <c r="X16" t="n">
         <v>175.4262758661735</v>
       </c>
       <c r="Y16" t="n">
-        <v>168.3012738292311</v>
+        <v>168.3012738292312</v>
       </c>
     </row>
     <row r="17">
@@ -1852,7 +1852,7 @@
         <v>304.3996620978193</v>
       </c>
       <c r="E17" t="n">
-        <v>331.6469905493981</v>
+        <v>331.646990549399</v>
       </c>
       <c r="F17" t="n">
         <v>356.5926662188478</v>
@@ -1912,7 +1912,7 @@
         <v>319.4477211556054</v>
       </c>
       <c r="Y17" t="n">
-        <v>335.9545591331898</v>
+        <v>335.9545591331899</v>
       </c>
     </row>
     <row r="18">
@@ -2007,7 +2007,7 @@
         <v>116.9634415757642</v>
       </c>
       <c r="D19" t="n">
-        <v>98.33209349534873</v>
+        <v>98.33209349534931</v>
       </c>
       <c r="E19" t="n">
         <v>96.15058312370554</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>62.62009709731723</v>
+        <v>62.62009709731728</v>
       </c>
       <c r="T20" t="n">
-        <v>154.3483829009958</v>
+        <v>154.3483829009957</v>
       </c>
       <c r="U20" t="n">
-        <v>200.7248371836658</v>
+        <v>200.724837183666</v>
       </c>
       <c r="V20" t="n">
         <v>277.4688789472713</v>
@@ -2250,7 +2250,7 @@
         <v>96.15058312370554</v>
       </c>
       <c r="F22" t="n">
-        <v>95.13766850006819</v>
+        <v>95.13766850006762</v>
       </c>
       <c r="G22" t="n">
         <v>115.815571544967</v>
@@ -2368,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>62.62009709731723</v>
+        <v>62.62009709731728</v>
       </c>
       <c r="T23" t="n">
         <v>154.3483829009958</v>
       </c>
       <c r="U23" t="n">
-        <v>200.724837183666</v>
+        <v>200.7248371836658</v>
       </c>
       <c r="V23" t="n">
         <v>277.4688789472713</v>
@@ -2383,7 +2383,7 @@
         <v>298.9575891945494</v>
       </c>
       <c r="X23" t="n">
-        <v>319.4477211556054</v>
+        <v>319.4477211556053</v>
       </c>
       <c r="Y23" t="n">
         <v>335.9545591331899</v>
@@ -2496,7 +2496,7 @@
         <v>95.1219414551735</v>
       </c>
       <c r="I25" t="n">
-        <v>48.2686446280517</v>
+        <v>48.26864462805185</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>112.9034766201809</v>
+        <v>112.9034766201812</v>
       </c>
       <c r="T26" t="n">
         <v>204.6317624238594</v>
@@ -2712,19 +2712,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>8.422915595519818</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2733,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>98.55202415091549</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>92.22091932765578</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>191.043705008481</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>120.119031035602</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.2158278133657</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>112.9034766201805</v>
+        <v>112.9034766201809</v>
       </c>
       <c r="T29" t="n">
         <v>204.6317624238594</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2967,10 +2967,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>145.4053209780371</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>71.988919010432</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3015,10 +3015,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>44.68726184347411</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3028,28 +3028,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>379.5548745780472</v>
+        <v>379.5548745780474</v>
       </c>
       <c r="C32" t="n">
-        <v>362.0939246855742</v>
+        <v>362.0939246855743</v>
       </c>
       <c r="D32" t="n">
-        <v>351.5040745352496</v>
+        <v>351.5040745352497</v>
       </c>
       <c r="E32" t="n">
-        <v>378.7514029868284</v>
+        <v>378.7514029868286</v>
       </c>
       <c r="F32" t="n">
-        <v>403.6970786562781</v>
+        <v>403.6970786562782</v>
       </c>
       <c r="G32" t="n">
-        <v>407.9058179133631</v>
+        <v>407.9058179133633</v>
       </c>
       <c r="H32" t="n">
-        <v>293.0987288223818</v>
+        <v>293.0987288223819</v>
       </c>
       <c r="I32" t="n">
-        <v>44.68430809883105</v>
+        <v>44.6843080988312</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3082,22 +3082,22 @@
         <v>109.7245095347468</v>
       </c>
       <c r="T32" t="n">
-        <v>201.4527953384261</v>
+        <v>201.4527953384262</v>
       </c>
       <c r="U32" t="n">
         <v>247.8292496210965</v>
       </c>
       <c r="V32" t="n">
-        <v>324.5732913847015</v>
+        <v>324.5732913847017</v>
       </c>
       <c r="W32" t="n">
-        <v>346.0620016319796</v>
+        <v>346.0620016319798</v>
       </c>
       <c r="X32" t="n">
-        <v>366.5521335930356</v>
+        <v>366.5521335930358</v>
       </c>
       <c r="Y32" t="n">
-        <v>383.0589715706202</v>
+        <v>383.0589715706204</v>
       </c>
     </row>
     <row r="33">
@@ -3195,16 +3195,16 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>143.2549955611358</v>
+        <v>143.254995561136</v>
       </c>
       <c r="F34" t="n">
-        <v>142.2420809374979</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>162.9199839823975</v>
       </c>
       <c r="H34" t="n">
-        <v>68.11753045355709</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>54.56462944559772</v>
       </c>
       <c r="S34" t="n">
-        <v>187.8647379230476</v>
+        <v>187.8647379230478</v>
       </c>
       <c r="T34" t="n">
-        <v>216.68250146471</v>
+        <v>216.6825014647101</v>
       </c>
       <c r="U34" t="n">
-        <v>283.0368607279323</v>
+        <v>283.0368607279325</v>
       </c>
       <c r="V34" t="n">
-        <v>248.9586762383946</v>
+        <v>248.9586762383948</v>
       </c>
       <c r="W34" t="n">
-        <v>283.3440312511576</v>
+        <v>283.3440312511578</v>
       </c>
       <c r="X34" t="n">
-        <v>222.5306883036038</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>215.4056862666616</v>
       </c>
     </row>
     <row r="35">
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>62.62009709731723</v>
+        <v>62.62009709731728</v>
       </c>
       <c r="T35" t="n">
-        <v>154.3483829009957</v>
+        <v>154.3483829009958</v>
       </c>
       <c r="U35" t="n">
-        <v>200.7248371836658</v>
+        <v>200.724837183666</v>
       </c>
       <c r="V35" t="n">
         <v>277.4688789472713</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>62.62009709731723</v>
+        <v>62.62009709731677</v>
       </c>
       <c r="T38" t="n">
         <v>154.3483829009958</v>
@@ -3681,7 +3681,7 @@
         <v>95.12194145517353</v>
       </c>
       <c r="I40" t="n">
-        <v>48.26864462805187</v>
+        <v>48.26864462805199</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3714,10 +3714,10 @@
         <v>140.7603254856174</v>
       </c>
       <c r="T40" t="n">
-        <v>169.5780890272792</v>
+        <v>169.5780890272797</v>
       </c>
       <c r="U40" t="n">
-        <v>235.932448290502</v>
+        <v>235.9324482905021</v>
       </c>
       <c r="V40" t="n">
         <v>201.8542638009644</v>
@@ -3739,19 +3739,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>332.450462140617</v>
+        <v>332.4504621406169</v>
       </c>
       <c r="C41" t="n">
         <v>314.9895122481439</v>
       </c>
       <c r="D41" t="n">
-        <v>304.3996620978194</v>
+        <v>304.3996620978193</v>
       </c>
       <c r="E41" t="n">
-        <v>331.6469905493982</v>
+        <v>331.6469905493981</v>
       </c>
       <c r="F41" t="n">
-        <v>356.5926662188479</v>
+        <v>356.5926662188478</v>
       </c>
       <c r="G41" t="n">
         <v>360.8014054759329</v>
@@ -3793,10 +3793,10 @@
         <v>62.62009709731728</v>
       </c>
       <c r="T41" t="n">
-        <v>154.3483829009957</v>
+        <v>154.3483829009967</v>
       </c>
       <c r="U41" t="n">
-        <v>200.724837183666</v>
+        <v>200.7248371836658</v>
       </c>
       <c r="V41" t="n">
         <v>277.4688789472713</v>
@@ -3903,22 +3903,22 @@
         <v>116.9634415757642</v>
       </c>
       <c r="D43" t="n">
-        <v>98.33209349534874</v>
+        <v>98.33209349534873</v>
       </c>
       <c r="E43" t="n">
-        <v>96.15058312370556</v>
+        <v>96.15058312370554</v>
       </c>
       <c r="F43" t="n">
-        <v>95.13766850006763</v>
+        <v>95.13766850006762</v>
       </c>
       <c r="G43" t="n">
         <v>115.8155715449671</v>
       </c>
       <c r="H43" t="n">
-        <v>95.12194145517353</v>
+        <v>95.12194145517351</v>
       </c>
       <c r="I43" t="n">
-        <v>48.26864462805198</v>
+        <v>48.26864462805186</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.93753980479217</v>
+        <v>41.93753980479215</v>
       </c>
       <c r="S43" t="n">
         <v>140.7603254856174</v>
@@ -3954,7 +3954,7 @@
         <v>169.5780890272797</v>
       </c>
       <c r="U43" t="n">
-        <v>235.9324482905021</v>
+        <v>235.9324482905026</v>
       </c>
       <c r="V43" t="n">
         <v>201.8542638009644</v>
@@ -3966,7 +3966,7 @@
         <v>175.4262758661735</v>
       </c>
       <c r="Y43" t="n">
-        <v>168.3012738292312</v>
+        <v>168.3012738292311</v>
       </c>
     </row>
     <row r="44">
@@ -3976,19 +3976,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>332.450462140617</v>
+        <v>332.4504621406169</v>
       </c>
       <c r="C44" t="n">
         <v>314.9895122481439</v>
       </c>
       <c r="D44" t="n">
-        <v>304.3996620978194</v>
+        <v>304.3996620978193</v>
       </c>
       <c r="E44" t="n">
-        <v>331.6469905493982</v>
+        <v>331.6469905493981</v>
       </c>
       <c r="F44" t="n">
-        <v>356.5926662188479</v>
+        <v>356.5926662188478</v>
       </c>
       <c r="G44" t="n">
         <v>360.8014054759329</v>
@@ -4027,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>62.62009709731723</v>
+        <v>62.62009709731727</v>
       </c>
       <c r="T44" t="n">
         <v>154.3483829009958</v>
       </c>
       <c r="U44" t="n">
-        <v>200.7248371836658</v>
+        <v>200.7248371836665</v>
       </c>
       <c r="V44" t="n">
         <v>277.4688789472713</v>
@@ -4137,25 +4137,25 @@
         <v>129.5486006590737</v>
       </c>
       <c r="C46" t="n">
-        <v>116.9634415757644</v>
+        <v>116.9634415757642</v>
       </c>
       <c r="D46" t="n">
-        <v>98.33209349534874</v>
+        <v>98.33209349534873</v>
       </c>
       <c r="E46" t="n">
-        <v>96.15058312370556</v>
+        <v>96.1505831237061</v>
       </c>
       <c r="F46" t="n">
-        <v>95.13766850006763</v>
+        <v>95.13766850006762</v>
       </c>
       <c r="G46" t="n">
-        <v>115.8155715449671</v>
+        <v>115.815571544967</v>
       </c>
       <c r="H46" t="n">
-        <v>95.12194145517353</v>
+        <v>95.1219414551735</v>
       </c>
       <c r="I46" t="n">
-        <v>48.26864462805187</v>
+        <v>48.26864462805185</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.93753980479217</v>
+        <v>41.93753980479215</v>
       </c>
       <c r="S46" t="n">
         <v>140.7603254856174</v>
@@ -4203,7 +4203,7 @@
         <v>175.4262758661735</v>
       </c>
       <c r="Y46" t="n">
-        <v>168.3012738292312</v>
+        <v>168.3012738292311</v>
       </c>
     </row>
   </sheetData>
@@ -4306,16 +4306,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>61.2109500605402</v>
+        <v>35.66202407096459</v>
       </c>
       <c r="C2" t="n">
-        <v>45.75363943919166</v>
+        <v>35.66202407096459</v>
       </c>
       <c r="D2" t="n">
-        <v>30.29632881784312</v>
+        <v>32.13884024390788</v>
       </c>
       <c r="E2" t="n">
-        <v>30.29632881784312</v>
+        <v>32.13884024390788</v>
       </c>
       <c r="F2" t="n">
         <v>16.68152962255934</v>
@@ -4336,46 +4336,46 @@
         <v>16.37392914119451</v>
       </c>
       <c r="L2" t="n">
-        <v>30.9115297805728</v>
+        <v>31.52363928117821</v>
       </c>
       <c r="M2" t="n">
-        <v>46.0612399205565</v>
+        <v>46.6733494211619</v>
       </c>
       <c r="N2" t="n">
-        <v>46.0612399205565</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="O2" t="n">
-        <v>46.0612399205565</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="P2" t="n">
         <v>61.2109500605402</v>
       </c>
       <c r="Q2" t="n">
-        <v>61.2109500605402</v>
+        <v>51.11933469231312</v>
       </c>
       <c r="R2" t="n">
-        <v>61.2109500605402</v>
+        <v>35.66202407096459</v>
       </c>
       <c r="S2" t="n">
-        <v>61.2109500605402</v>
+        <v>35.66202407096459</v>
       </c>
       <c r="T2" t="n">
-        <v>61.2109500605402</v>
+        <v>35.66202407096459</v>
       </c>
       <c r="U2" t="n">
-        <v>61.2109500605402</v>
+        <v>35.66202407096459</v>
       </c>
       <c r="V2" t="n">
-        <v>61.2109500605402</v>
+        <v>35.66202407096459</v>
       </c>
       <c r="W2" t="n">
-        <v>61.2109500605402</v>
+        <v>35.66202407096459</v>
       </c>
       <c r="X2" t="n">
-        <v>61.2109500605402</v>
+        <v>35.66202407096459</v>
       </c>
       <c r="Y2" t="n">
-        <v>61.2109500605402</v>
+        <v>35.66202407096459</v>
       </c>
     </row>
     <row r="3">
@@ -4385,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17.43566227534506</v>
+        <v>32.89297289669359</v>
       </c>
       <c r="C3" t="n">
-        <v>17.43566227534506</v>
+        <v>32.89297289669359</v>
       </c>
       <c r="D3" t="n">
-        <v>17.43566227534506</v>
+        <v>32.89297289669359</v>
       </c>
       <c r="E3" t="n">
-        <v>17.43566227534506</v>
+        <v>32.89297289669359</v>
       </c>
       <c r="F3" t="n">
-        <v>17.43566227534506</v>
+        <v>32.89297289669359</v>
       </c>
       <c r="G3" t="n">
-        <v>17.43566227534506</v>
+        <v>32.89297289669359</v>
       </c>
       <c r="H3" t="n">
         <v>17.43566227534506</v>
@@ -4412,22 +4412,22 @@
         <v>1.224219001210804</v>
       </c>
       <c r="K3" t="n">
-        <v>1.224219001210804</v>
+        <v>16.37392914119451</v>
       </c>
       <c r="L3" t="n">
-        <v>16.37392914119451</v>
+        <v>31.52363928117821</v>
       </c>
       <c r="M3" t="n">
-        <v>30.9115297805728</v>
+        <v>31.52363928117821</v>
       </c>
       <c r="N3" t="n">
-        <v>30.9115297805728</v>
+        <v>31.52363928117821</v>
       </c>
       <c r="O3" t="n">
+        <v>31.52363928117821</v>
+      </c>
+      <c r="P3" t="n">
         <v>46.0612399205565</v>
-      </c>
-      <c r="P3" t="n">
-        <v>61.2109500605402</v>
       </c>
       <c r="Q3" t="n">
         <v>61.2109500605402</v>
@@ -4439,22 +4439,22 @@
         <v>45.75363943919166</v>
       </c>
       <c r="T3" t="n">
-        <v>32.89297289669359</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="U3" t="n">
-        <v>32.89297289669359</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="V3" t="n">
         <v>32.89297289669359</v>
       </c>
       <c r="W3" t="n">
-        <v>17.43566227534506</v>
+        <v>32.89297289669359</v>
       </c>
       <c r="X3" t="n">
-        <v>17.43566227534506</v>
+        <v>32.89297289669359</v>
       </c>
       <c r="Y3" t="n">
-        <v>17.43566227534506</v>
+        <v>32.89297289669359</v>
       </c>
     </row>
     <row r="4">
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>27.54739878238201</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="C4" t="n">
-        <v>27.54739878238201</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="D4" t="n">
-        <v>27.54739878238201</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="E4" t="n">
-        <v>27.54739878238201</v>
+        <v>47.59615086525642</v>
       </c>
       <c r="F4" t="n">
-        <v>27.54739878238201</v>
+        <v>32.13884024390788</v>
       </c>
       <c r="G4" t="n">
-        <v>27.54739878238201</v>
+        <v>16.68152962255934</v>
       </c>
       <c r="H4" t="n">
-        <v>27.54739878238201</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="I4" t="n">
-        <v>12.09008816103347</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="J4" t="n">
         <v>1.224219001210804</v>
@@ -4506,34 +4506,34 @@
         <v>61.2109500605402</v>
       </c>
       <c r="P4" t="n">
-        <v>58.46202002507908</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="Q4" t="n">
-        <v>43.00470940373054</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="R4" t="n">
-        <v>43.00470940373054</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="S4" t="n">
-        <v>43.00470940373054</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="T4" t="n">
-        <v>43.00470940373054</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="U4" t="n">
-        <v>43.00470940373054</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="V4" t="n">
-        <v>43.00470940373054</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="W4" t="n">
-        <v>43.00470940373054</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="X4" t="n">
-        <v>27.54739878238201</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="Y4" t="n">
-        <v>27.54739878238201</v>
+        <v>61.2109500605402</v>
       </c>
     </row>
     <row r="5">
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>23.62703037176281</v>
+        <v>51.11933469231312</v>
       </c>
       <c r="C5" t="n">
-        <v>23.62703037176281</v>
+        <v>51.11933469231312</v>
       </c>
       <c r="D5" t="n">
-        <v>23.62703037176281</v>
+        <v>51.11933469231312</v>
       </c>
       <c r="E5" t="n">
-        <v>23.62703037176281</v>
+        <v>44.20882949099123</v>
       </c>
       <c r="F5" t="n">
-        <v>16.68152962255934</v>
+        <v>28.75151886964269</v>
       </c>
       <c r="G5" t="n">
-        <v>1.224219001210804</v>
+        <v>13.29420824829416</v>
       </c>
       <c r="H5" t="n">
-        <v>1.224219001210804</v>
+        <v>13.29420824829416</v>
       </c>
       <c r="I5" t="n">
-        <v>1.224219001210804</v>
+        <v>13.29420824829416</v>
       </c>
       <c r="J5" t="n">
         <v>1.224219001210804</v>
@@ -4573,16 +4573,16 @@
         <v>16.37392914119451</v>
       </c>
       <c r="L5" t="n">
-        <v>16.37392914119451</v>
+        <v>30.9115297805728</v>
       </c>
       <c r="M5" t="n">
-        <v>16.37392914119451</v>
+        <v>30.9115297805728</v>
       </c>
       <c r="N5" t="n">
-        <v>30.9115297805728</v>
+        <v>46.0612399205565</v>
       </c>
       <c r="O5" t="n">
-        <v>46.0612399205565</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="P5" t="n">
         <v>61.2109500605402</v>
@@ -4591,28 +4591,28 @@
         <v>51.11933469231312</v>
       </c>
       <c r="R5" t="n">
-        <v>35.66202407096459</v>
+        <v>51.11933469231312</v>
       </c>
       <c r="S5" t="n">
-        <v>35.66202407096459</v>
+        <v>51.11933469231312</v>
       </c>
       <c r="T5" t="n">
-        <v>23.62703037176281</v>
+        <v>51.11933469231312</v>
       </c>
       <c r="U5" t="n">
-        <v>23.62703037176281</v>
+        <v>51.11933469231312</v>
       </c>
       <c r="V5" t="n">
-        <v>23.62703037176281</v>
+        <v>51.11933469231312</v>
       </c>
       <c r="W5" t="n">
-        <v>23.62703037176281</v>
+        <v>51.11933469231312</v>
       </c>
       <c r="X5" t="n">
-        <v>23.62703037176281</v>
+        <v>51.11933469231312</v>
       </c>
       <c r="Y5" t="n">
-        <v>23.62703037176281</v>
+        <v>51.11933469231312</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>45.75363943919166</v>
+        <v>32.89297289669359</v>
       </c>
       <c r="C6" t="n">
-        <v>45.75363943919166</v>
+        <v>32.89297289669359</v>
       </c>
       <c r="D6" t="n">
-        <v>45.75363943919166</v>
+        <v>32.89297289669359</v>
       </c>
       <c r="E6" t="n">
-        <v>30.29632881784312</v>
+        <v>17.43566227534506</v>
       </c>
       <c r="F6" t="n">
-        <v>30.29632881784312</v>
+        <v>1.978351653996518</v>
       </c>
       <c r="G6" t="n">
-        <v>17.43566227534506</v>
+        <v>1.978351653996518</v>
       </c>
       <c r="H6" t="n">
-        <v>17.43566227534506</v>
+        <v>1.978351653996518</v>
       </c>
       <c r="I6" t="n">
         <v>1.978351653996518</v>
@@ -4649,16 +4649,16 @@
         <v>1.224219001210804</v>
       </c>
       <c r="K6" t="n">
-        <v>16.37392914119451</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="L6" t="n">
-        <v>16.37392914119451</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="M6" t="n">
-        <v>16.37392914119451</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="N6" t="n">
-        <v>16.37392914119451</v>
+        <v>15.7618196405891</v>
       </c>
       <c r="O6" t="n">
         <v>30.9115297805728</v>
@@ -4670,28 +4670,28 @@
         <v>61.2109500605402</v>
       </c>
       <c r="R6" t="n">
-        <v>61.2109500605402</v>
+        <v>48.35028351804213</v>
       </c>
       <c r="S6" t="n">
-        <v>61.2109500605402</v>
+        <v>48.35028351804213</v>
       </c>
       <c r="T6" t="n">
-        <v>61.2109500605402</v>
+        <v>32.89297289669359</v>
       </c>
       <c r="U6" t="n">
-        <v>61.2109500605402</v>
+        <v>32.89297289669359</v>
       </c>
       <c r="V6" t="n">
-        <v>61.2109500605402</v>
+        <v>32.89297289669359</v>
       </c>
       <c r="W6" t="n">
-        <v>61.2109500605402</v>
+        <v>32.89297289669359</v>
       </c>
       <c r="X6" t="n">
-        <v>61.2109500605402</v>
+        <v>32.89297289669359</v>
       </c>
       <c r="Y6" t="n">
-        <v>45.75363943919166</v>
+        <v>32.89297289669359</v>
       </c>
     </row>
     <row r="7">
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>32.13884024390788</v>
+        <v>27.54739878238201</v>
       </c>
       <c r="C7" t="n">
-        <v>16.68152962255934</v>
+        <v>27.54739878238201</v>
       </c>
       <c r="D7" t="n">
-        <v>16.68152962255934</v>
+        <v>27.54739878238201</v>
       </c>
       <c r="E7" t="n">
-        <v>16.68152962255934</v>
+        <v>27.54739878238201</v>
       </c>
       <c r="F7" t="n">
-        <v>16.68152962255934</v>
+        <v>27.54739878238201</v>
       </c>
       <c r="G7" t="n">
-        <v>16.68152962255934</v>
+        <v>27.54739878238201</v>
       </c>
       <c r="H7" t="n">
-        <v>16.68152962255934</v>
+        <v>27.54739878238201</v>
       </c>
       <c r="I7" t="n">
-        <v>16.68152962255934</v>
+        <v>12.09008816103347</v>
       </c>
       <c r="J7" t="n">
         <v>1.224219001210804</v>
@@ -4737,7 +4737,7 @@
         <v>31.52363928117821</v>
       </c>
       <c r="N7" t="n">
-        <v>46.6733494211619</v>
+        <v>46.0612399205565</v>
       </c>
       <c r="O7" t="n">
         <v>61.2109500605402</v>
@@ -4746,31 +4746,31 @@
         <v>58.46202002507908</v>
       </c>
       <c r="Q7" t="n">
-        <v>58.46202002507908</v>
+        <v>43.00470940373054</v>
       </c>
       <c r="R7" t="n">
-        <v>58.46202002507908</v>
+        <v>27.54739878238201</v>
       </c>
       <c r="S7" t="n">
-        <v>58.46202002507908</v>
+        <v>27.54739878238201</v>
       </c>
       <c r="T7" t="n">
-        <v>47.59615086525642</v>
+        <v>27.54739878238201</v>
       </c>
       <c r="U7" t="n">
-        <v>47.59615086525642</v>
+        <v>27.54739878238201</v>
       </c>
       <c r="V7" t="n">
-        <v>47.59615086525642</v>
+        <v>27.54739878238201</v>
       </c>
       <c r="W7" t="n">
-        <v>32.13884024390788</v>
+        <v>27.54739878238201</v>
       </c>
       <c r="X7" t="n">
-        <v>32.13884024390788</v>
+        <v>27.54739878238201</v>
       </c>
       <c r="Y7" t="n">
-        <v>32.13884024390788</v>
+        <v>27.54739878238201</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>44.53106090472204</v>
+        <v>70.01461603622408</v>
       </c>
       <c r="C8" t="n">
-        <v>44.53106090472204</v>
+        <v>70.01461603622408</v>
       </c>
       <c r="D8" t="n">
-        <v>44.53106090472204</v>
+        <v>70.01461603622408</v>
       </c>
       <c r="E8" t="n">
-        <v>44.53106090472204</v>
+        <v>70.01461603622408</v>
       </c>
       <c r="F8" t="n">
-        <v>17.66451264217383</v>
+        <v>42.14590365206637</v>
       </c>
       <c r="G8" t="n">
-        <v>2.207202020825291</v>
+        <v>14.27719126790864</v>
       </c>
       <c r="H8" t="n">
-        <v>2.207202020825291</v>
+        <v>14.27719126790864</v>
       </c>
       <c r="I8" t="n">
-        <v>2.207202020825291</v>
+        <v>14.27719126790864</v>
       </c>
       <c r="J8" t="n">
         <v>2.207202020825291</v>
@@ -4816,7 +4816,7 @@
         <v>55.73185102583861</v>
       </c>
       <c r="N8" t="n">
-        <v>83.04597603355158</v>
+        <v>55.73185102583861</v>
       </c>
       <c r="O8" t="n">
         <v>83.04597603355158</v>
@@ -4828,28 +4828,28 @@
         <v>100.2684856730375</v>
       </c>
       <c r="R8" t="n">
+        <v>100.2684856730375</v>
+      </c>
+      <c r="S8" t="n">
+        <v>100.2684856730375</v>
+      </c>
+      <c r="T8" t="n">
+        <v>100.2684856730375</v>
+      </c>
+      <c r="U8" t="n">
+        <v>100.2684856730375</v>
+      </c>
+      <c r="V8" t="n">
         <v>72.39977328887976</v>
       </c>
-      <c r="S8" t="n">
+      <c r="W8" t="n">
         <v>72.39977328887976</v>
       </c>
-      <c r="T8" t="n">
-        <v>44.53106090472204</v>
-      </c>
-      <c r="U8" t="n">
-        <v>44.53106090472204</v>
-      </c>
-      <c r="V8" t="n">
-        <v>44.53106090472204</v>
-      </c>
-      <c r="W8" t="n">
-        <v>44.53106090472204</v>
-      </c>
       <c r="X8" t="n">
-        <v>44.53106090472204</v>
+        <v>72.39977328887976</v>
       </c>
       <c r="Y8" t="n">
-        <v>44.53106090472204</v>
+        <v>70.01461603622408</v>
       </c>
     </row>
     <row r="9">
@@ -4859,22 +4859,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>82.49138865710684</v>
+        <v>30.83004705776872</v>
       </c>
       <c r="C9" t="n">
-        <v>82.49138865710684</v>
+        <v>30.83004705776872</v>
       </c>
       <c r="D9" t="n">
-        <v>82.49138865710684</v>
+        <v>30.83004705776872</v>
       </c>
       <c r="E9" t="n">
-        <v>58.69875944192644</v>
+        <v>30.83004705776872</v>
       </c>
       <c r="F9" t="n">
-        <v>58.69875944192644</v>
+        <v>30.83004705776872</v>
       </c>
       <c r="G9" t="n">
-        <v>58.69875944192644</v>
+        <v>30.83004705776872</v>
       </c>
       <c r="H9" t="n">
         <v>30.83004705776872</v>
@@ -4886,31 +4886,31 @@
         <v>2.207202020825291</v>
       </c>
       <c r="K9" t="n">
-        <v>2.207202020825291</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="L9" t="n">
-        <v>28.41772601812563</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="M9" t="n">
-        <v>55.73185102583861</v>
+        <v>84.14957704396423</v>
       </c>
       <c r="N9" t="n">
-        <v>83.04597603355158</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="O9" t="n">
-        <v>83.04597603355158</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="P9" t="n">
-        <v>83.04597603355158</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="Q9" t="n">
         <v>110.3601010412646</v>
       </c>
       <c r="R9" t="n">
-        <v>82.49138865710684</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="S9" t="n">
-        <v>82.49138865710684</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="T9" t="n">
         <v>82.49138865710684</v>
@@ -4922,13 +4922,13 @@
         <v>82.49138865710684</v>
       </c>
       <c r="W9" t="n">
-        <v>82.49138865710684</v>
+        <v>58.69875944192644</v>
       </c>
       <c r="X9" t="n">
-        <v>82.49138865710684</v>
+        <v>30.83004705776872</v>
       </c>
       <c r="Y9" t="n">
-        <v>82.49138865710684</v>
+        <v>30.83004705776872</v>
       </c>
     </row>
     <row r="10">
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>30.07591440498301</v>
+        <v>80.43906297690118</v>
       </c>
       <c r="C10" t="n">
-        <v>30.07591440498301</v>
+        <v>52.57035059274347</v>
       </c>
       <c r="D10" t="n">
-        <v>30.07591440498301</v>
+        <v>24.70163820858575</v>
       </c>
       <c r="E10" t="n">
-        <v>30.07591440498301</v>
+        <v>24.70163820858575</v>
       </c>
       <c r="F10" t="n">
-        <v>30.07591440498301</v>
+        <v>24.70163820858575</v>
       </c>
       <c r="G10" t="n">
-        <v>30.07591440498301</v>
+        <v>24.70163820858575</v>
       </c>
       <c r="H10" t="n">
-        <v>30.07591440498301</v>
+        <v>24.70163820858575</v>
       </c>
       <c r="I10" t="n">
-        <v>30.07591440498301</v>
+        <v>24.70163820858575</v>
       </c>
       <c r="J10" t="n">
-        <v>2.207202020825291</v>
+        <v>24.70163820858575</v>
       </c>
       <c r="K10" t="n">
         <v>2.207202020825291</v>
@@ -4983,31 +4983,31 @@
         <v>105.7399236434024</v>
       </c>
       <c r="Q10" t="n">
-        <v>77.87121125924466</v>
+        <v>105.7399236434024</v>
       </c>
       <c r="R10" t="n">
-        <v>57.94462678914073</v>
+        <v>105.7399236434024</v>
       </c>
       <c r="S10" t="n">
-        <v>57.94462678914073</v>
+        <v>105.7399236434024</v>
       </c>
       <c r="T10" t="n">
-        <v>57.94462678914073</v>
+        <v>105.7399236434024</v>
       </c>
       <c r="U10" t="n">
-        <v>57.94462678914073</v>
+        <v>105.7399236434024</v>
       </c>
       <c r="V10" t="n">
-        <v>57.94462678914073</v>
+        <v>105.7399236434024</v>
       </c>
       <c r="W10" t="n">
-        <v>57.94462678914073</v>
+        <v>105.7399236434024</v>
       </c>
       <c r="X10" t="n">
-        <v>57.94462678914073</v>
+        <v>105.7399236434024</v>
       </c>
       <c r="Y10" t="n">
-        <v>57.94462678914073</v>
+        <v>105.7399236434024</v>
       </c>
     </row>
     <row r="11">
@@ -5032,37 +5032,37 @@
         <v>693.2464945766159</v>
       </c>
       <c r="G11" t="n">
-        <v>328.800630459512</v>
+        <v>328.8006304595121</v>
       </c>
       <c r="H11" t="n">
-        <v>80.32152299996507</v>
+        <v>80.32152299996508</v>
       </c>
       <c r="I11" t="n">
-        <v>80.32152299996507</v>
+        <v>80.32152299996508</v>
       </c>
       <c r="J11" t="n">
-        <v>255.4995904282977</v>
+        <v>422.9052394486508</v>
       </c>
       <c r="K11" t="n">
-        <v>889.6885799654162</v>
+        <v>1056.650675465851</v>
       </c>
       <c r="L11" t="n">
-        <v>1315.248125450002</v>
+        <v>1482.210220950437</v>
       </c>
       <c r="M11" t="n">
-        <v>2265.45295194959</v>
+        <v>1987.396649292121</v>
       </c>
       <c r="N11" t="n">
-        <v>2889.011307343376</v>
+        <v>2505.371330579356</v>
       </c>
       <c r="O11" t="n">
-        <v>3364.784849602769</v>
+        <v>2981.144872838749</v>
       </c>
       <c r="P11" t="n">
-        <v>3736.345559652278</v>
+        <v>3671.286303978025</v>
       </c>
       <c r="Q11" t="n">
-        <v>3967.199432277338</v>
+        <v>3902.140176603086</v>
       </c>
       <c r="R11" t="n">
         <v>4016.076149998254</v>
@@ -5071,7 +5071,7 @@
         <v>3952.82352666763</v>
       </c>
       <c r="T11" t="n">
-        <v>3796.916069191876</v>
+        <v>3796.916069191877</v>
       </c>
       <c r="U11" t="n">
         <v>3594.163708400295</v>
@@ -5096,49 +5096,49 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>949.0986203703502</v>
+        <v>949.0986203703504</v>
       </c>
       <c r="C12" t="n">
-        <v>774.6455910892232</v>
+        <v>774.6455910892234</v>
       </c>
       <c r="D12" t="n">
-        <v>625.711181427972</v>
+        <v>625.7111814279722</v>
       </c>
       <c r="E12" t="n">
-        <v>466.4737264225165</v>
+        <v>466.4737264225166</v>
       </c>
       <c r="F12" t="n">
-        <v>319.9391684494015</v>
+        <v>319.9391684494016</v>
       </c>
       <c r="G12" t="n">
-        <v>183.4879425838003</v>
+        <v>183.4879425838004</v>
       </c>
       <c r="H12" t="n">
-        <v>92.13493950465526</v>
+        <v>92.13493950465528</v>
       </c>
       <c r="I12" t="n">
-        <v>80.32152299996507</v>
+        <v>80.32152299996508</v>
       </c>
       <c r="J12" t="n">
-        <v>165.8385329133835</v>
+        <v>290.6686579003883</v>
       </c>
       <c r="K12" t="n">
-        <v>390.1555485292754</v>
+        <v>514.9856735162803</v>
       </c>
       <c r="L12" t="n">
-        <v>738.0999996190992</v>
+        <v>862.9301246061041</v>
       </c>
       <c r="M12" t="n">
-        <v>1163.491630733677</v>
+        <v>1288.321755720682</v>
       </c>
       <c r="N12" t="n">
-        <v>1614.550757447302</v>
+        <v>1743.428096821655</v>
       </c>
       <c r="O12" t="n">
-        <v>2004.96194163838</v>
+        <v>2133.839281012733</v>
       </c>
       <c r="P12" t="n">
-        <v>2298.968269966436</v>
+        <v>2427.845609340789</v>
       </c>
       <c r="Q12" t="n">
         <v>2574.461857357622</v>
@@ -5150,13 +5150,13 @@
         <v>2443.387074658301</v>
       </c>
       <c r="T12" t="n">
-        <v>2250.388865929737</v>
+        <v>2250.388865929738</v>
       </c>
       <c r="U12" t="n">
         <v>2022.315221320849</v>
       </c>
       <c r="V12" t="n">
-        <v>1787.163113089106</v>
+        <v>1787.163113089107</v>
       </c>
       <c r="W12" t="n">
         <v>1532.925756360905</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>752.8366182758019</v>
+        <v>752.8366182758023</v>
       </c>
       <c r="C13" t="n">
-        <v>634.6917277952321</v>
+        <v>634.6917277952323</v>
       </c>
       <c r="D13" t="n">
-        <v>535.3663808302333</v>
+        <v>535.3663808302335</v>
       </c>
       <c r="E13" t="n">
-        <v>438.2445796951772</v>
+        <v>438.2445796951774</v>
       </c>
       <c r="F13" t="n">
-        <v>342.1459246446038</v>
+        <v>342.1459246446041</v>
       </c>
       <c r="G13" t="n">
-        <v>225.1604988416069</v>
+        <v>225.160498841607</v>
       </c>
       <c r="H13" t="n">
-        <v>129.0777296949669</v>
+        <v>129.0777296949671</v>
       </c>
       <c r="I13" t="n">
-        <v>80.32152299996507</v>
+        <v>80.32152299996508</v>
       </c>
       <c r="J13" t="n">
         <v>170.1052165580256</v>
@@ -5214,7 +5214,7 @@
         <v>1533.729590671725</v>
       </c>
       <c r="O13" t="n">
-        <v>1872.604715798429</v>
+        <v>1872.604715798428</v>
       </c>
       <c r="P13" t="n">
         <v>2146.234934604952</v>
@@ -5235,16 +5235,16 @@
         <v>1673.412409153752</v>
       </c>
       <c r="V13" t="n">
-        <v>1469.519213395201</v>
+        <v>1469.519213395202</v>
       </c>
       <c r="W13" t="n">
-        <v>1230.893335805578</v>
+        <v>1230.893335805579</v>
       </c>
       <c r="X13" t="n">
         <v>1053.695077354898</v>
       </c>
       <c r="Y13" t="n">
-        <v>883.6937906587046</v>
+        <v>883.693790658705</v>
       </c>
     </row>
     <row r="14">
@@ -5254,58 +5254,58 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2014.083697722282</v>
+        <v>2014.083697722283</v>
       </c>
       <c r="C14" t="n">
-        <v>1695.912473229207</v>
+        <v>1695.912473229208</v>
       </c>
       <c r="D14" t="n">
         <v>1388.438067069794</v>
       </c>
       <c r="E14" t="n">
-        <v>1053.441106918886</v>
+        <v>1053.441106918887</v>
       </c>
       <c r="F14" t="n">
-        <v>693.2464945766159</v>
+        <v>693.2464945766162</v>
       </c>
       <c r="G14" t="n">
-        <v>328.800630459512</v>
+        <v>328.8006304595121</v>
       </c>
       <c r="H14" t="n">
-        <v>80.32152299996507</v>
+        <v>80.32152299996508</v>
       </c>
       <c r="I14" t="n">
-        <v>80.32152299996507</v>
+        <v>80.32152299996508</v>
       </c>
       <c r="J14" t="n">
-        <v>255.4995904282977</v>
+        <v>422.9052394486508</v>
       </c>
       <c r="K14" t="n">
-        <v>889.6885799654162</v>
+        <v>1057.094228985769</v>
       </c>
       <c r="L14" t="n">
-        <v>1315.248125450002</v>
+        <v>1482.653774470355</v>
       </c>
       <c r="M14" t="n">
-        <v>1820.434553791686</v>
+        <v>1987.840202812039</v>
       </c>
       <c r="N14" t="n">
-        <v>2338.409235078921</v>
+        <v>2505.814884099274</v>
       </c>
       <c r="O14" t="n">
-        <v>2814.182777338313</v>
+        <v>2981.588426358667</v>
       </c>
       <c r="P14" t="n">
-        <v>3504.32420847759</v>
+        <v>3671.286303978025</v>
       </c>
       <c r="Q14" t="n">
-        <v>3945.369921855956</v>
+        <v>3902.140176603086</v>
       </c>
       <c r="R14" t="n">
         <v>4016.076149998254</v>
       </c>
       <c r="S14" t="n">
-        <v>3952.82352666763</v>
+        <v>3952.823526667631</v>
       </c>
       <c r="T14" t="n">
         <v>3796.916069191877</v>
@@ -5314,16 +5314,16 @@
         <v>3594.163708400295</v>
       </c>
       <c r="V14" t="n">
-        <v>3313.892113504061</v>
+        <v>3313.892113504062</v>
       </c>
       <c r="W14" t="n">
-        <v>3011.914750681284</v>
+        <v>3011.914750681285</v>
       </c>
       <c r="X14" t="n">
-        <v>2689.240284867541</v>
+        <v>2689.240284867542</v>
       </c>
       <c r="Y14" t="n">
-        <v>2349.892245339066</v>
+        <v>2349.892245339067</v>
       </c>
     </row>
     <row r="15">
@@ -5333,52 +5333,52 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>949.0986203703502</v>
+        <v>949.0986203703504</v>
       </c>
       <c r="C15" t="n">
-        <v>774.6455910892232</v>
+        <v>774.6455910892234</v>
       </c>
       <c r="D15" t="n">
-        <v>625.711181427972</v>
+        <v>625.7111814279722</v>
       </c>
       <c r="E15" t="n">
-        <v>466.4737264225165</v>
+        <v>466.4737264225166</v>
       </c>
       <c r="F15" t="n">
-        <v>319.9391684494015</v>
+        <v>319.9391684494016</v>
       </c>
       <c r="G15" t="n">
-        <v>183.4879425838003</v>
+        <v>183.4879425838004</v>
       </c>
       <c r="H15" t="n">
-        <v>92.13493950465526</v>
+        <v>92.13493950465528</v>
       </c>
       <c r="I15" t="n">
-        <v>80.32152299996507</v>
+        <v>80.32152299996508</v>
       </c>
       <c r="J15" t="n">
-        <v>290.6686579003883</v>
+        <v>255.1535402432867</v>
       </c>
       <c r="K15" t="n">
-        <v>514.9856735162801</v>
+        <v>479.4705558591785</v>
       </c>
       <c r="L15" t="n">
-        <v>862.9301246061041</v>
+        <v>827.4150069490024</v>
       </c>
       <c r="M15" t="n">
-        <v>1288.321755720682</v>
+        <v>1252.806638063581</v>
       </c>
       <c r="N15" t="n">
-        <v>1739.380882434307</v>
+        <v>1703.865764777205</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.792066625385</v>
+        <v>2094.276948968283</v>
       </c>
       <c r="P15" t="n">
-        <v>2423.79839495344</v>
+        <v>2388.283277296339</v>
       </c>
       <c r="Q15" t="n">
-        <v>2574.461857357622</v>
+        <v>2534.899525313172</v>
       </c>
       <c r="R15" t="n">
         <v>2574.461857357622</v>
@@ -5387,13 +5387,13 @@
         <v>2443.387074658301</v>
       </c>
       <c r="T15" t="n">
-        <v>2250.388865929737</v>
+        <v>2250.388865929738</v>
       </c>
       <c r="U15" t="n">
         <v>2022.315221320849</v>
       </c>
       <c r="V15" t="n">
-        <v>1787.163113089106</v>
+        <v>1787.163113089107</v>
       </c>
       <c r="W15" t="n">
         <v>1532.925756360905</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>752.8366182758019</v>
+        <v>752.8366182758016</v>
       </c>
       <c r="C16" t="n">
-        <v>634.6917277952321</v>
+        <v>634.6917277952316</v>
       </c>
       <c r="D16" t="n">
-        <v>535.3663808302333</v>
+        <v>535.3663808302329</v>
       </c>
       <c r="E16" t="n">
-        <v>438.2445796951772</v>
+        <v>438.2445796951768</v>
       </c>
       <c r="F16" t="n">
         <v>342.1459246446038</v>
       </c>
       <c r="G16" t="n">
-        <v>225.1604988416069</v>
+        <v>225.1604988416067</v>
       </c>
       <c r="H16" t="n">
-        <v>129.0777296949669</v>
+        <v>129.0777296949668</v>
       </c>
       <c r="I16" t="n">
-        <v>80.32152299996507</v>
+        <v>80.32152299996508</v>
       </c>
       <c r="J16" t="n">
         <v>170.1052165580256</v>
       </c>
       <c r="K16" t="n">
-        <v>415.4600593660789</v>
+        <v>415.4600593660788</v>
       </c>
       <c r="L16" t="n">
-        <v>771.0348060858123</v>
+        <v>771.0348060858122</v>
       </c>
       <c r="M16" t="n">
         <v>1153.62158434337</v>
       </c>
       <c r="N16" t="n">
-        <v>1533.729590671725</v>
+        <v>1533.729590671724</v>
       </c>
       <c r="O16" t="n">
-        <v>1872.604715798429</v>
+        <v>1872.604715798428</v>
       </c>
       <c r="P16" t="n">
         <v>2146.234934604952</v>
       </c>
       <c r="Q16" t="n">
-        <v>2267.562310778188</v>
+        <v>2267.562310778187</v>
       </c>
       <c r="R16" t="n">
-        <v>2225.201159460216</v>
+        <v>2225.201159460215</v>
       </c>
       <c r="S16" t="n">
-        <v>2083.019012505047</v>
+        <v>2083.019012505046</v>
       </c>
       <c r="T16" t="n">
-        <v>1911.728013487593</v>
+        <v>1911.728013487592</v>
       </c>
       <c r="U16" t="n">
-        <v>1673.412409153752</v>
+        <v>1673.412409153751</v>
       </c>
       <c r="V16" t="n">
-        <v>1469.519213395202</v>
+        <v>1469.519213395201</v>
       </c>
       <c r="W16" t="n">
         <v>1230.893335805578</v>
       </c>
       <c r="X16" t="n">
-        <v>1053.695077354898</v>
+        <v>1053.695077354897</v>
       </c>
       <c r="Y16" t="n">
-        <v>883.6937906587046</v>
+        <v>883.6937906587043</v>
       </c>
     </row>
     <row r="17">
@@ -5491,13 +5491,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2014.083697722282</v>
+        <v>2014.083697722283</v>
       </c>
       <c r="C17" t="n">
-        <v>1695.912473229207</v>
+        <v>1695.912473229208</v>
       </c>
       <c r="D17" t="n">
-        <v>1388.438067069794</v>
+        <v>1388.438067069795</v>
       </c>
       <c r="E17" t="n">
         <v>1053.441106918887</v>
@@ -5509,25 +5509,25 @@
         <v>328.800630459512</v>
       </c>
       <c r="H17" t="n">
-        <v>80.32152299996507</v>
+        <v>80.32152299996508</v>
       </c>
       <c r="I17" t="n">
-        <v>80.32152299996507</v>
+        <v>80.32152299996508</v>
       </c>
       <c r="J17" t="n">
-        <v>268.5026205753559</v>
+        <v>255.4995904282978</v>
       </c>
       <c r="K17" t="n">
-        <v>581.7876516670214</v>
+        <v>568.7846215199633</v>
       </c>
       <c r="L17" t="n">
-        <v>1420.831799556553</v>
+        <v>994.3441670045488</v>
       </c>
       <c r="M17" t="n">
-        <v>2371.036626056141</v>
+        <v>1944.548993504137</v>
       </c>
       <c r="N17" t="n">
-        <v>2889.011307343376</v>
+        <v>2889.011307343377</v>
       </c>
       <c r="O17" t="n">
         <v>3364.784849602769</v>
@@ -5536,31 +5536,31 @@
         <v>3736.345559652278</v>
       </c>
       <c r="Q17" t="n">
-        <v>3967.199432277338</v>
+        <v>3967.199432277339</v>
       </c>
       <c r="R17" t="n">
         <v>4016.076149998254</v>
       </c>
       <c r="S17" t="n">
-        <v>3952.82352666763</v>
+        <v>3952.823526667631</v>
       </c>
       <c r="T17" t="n">
         <v>3796.916069191877</v>
       </c>
       <c r="U17" t="n">
-        <v>3594.163708400295</v>
+        <v>3594.163708400296</v>
       </c>
       <c r="V17" t="n">
-        <v>3313.892113504061</v>
+        <v>3313.892113504062</v>
       </c>
       <c r="W17" t="n">
-        <v>3011.914750681284</v>
+        <v>3011.914750681285</v>
       </c>
       <c r="X17" t="n">
         <v>2689.240284867542</v>
       </c>
       <c r="Y17" t="n">
-        <v>2349.892245339067</v>
+        <v>2349.892245339068</v>
       </c>
     </row>
     <row r="18">
@@ -5570,52 +5570,52 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>949.0986203703502</v>
+        <v>949.0986203703504</v>
       </c>
       <c r="C18" t="n">
-        <v>774.6455910892232</v>
+        <v>774.6455910892234</v>
       </c>
       <c r="D18" t="n">
-        <v>625.711181427972</v>
+        <v>625.7111814279722</v>
       </c>
       <c r="E18" t="n">
-        <v>466.4737264225165</v>
+        <v>466.4737264225166</v>
       </c>
       <c r="F18" t="n">
-        <v>319.9391684494015</v>
+        <v>319.9391684494016</v>
       </c>
       <c r="G18" t="n">
-        <v>183.4879425838003</v>
+        <v>183.4879425838004</v>
       </c>
       <c r="H18" t="n">
-        <v>92.13493950465526</v>
+        <v>92.13493950465528</v>
       </c>
       <c r="I18" t="n">
-        <v>80.32152299996507</v>
+        <v>80.32152299996508</v>
       </c>
       <c r="J18" t="n">
-        <v>165.8385329133835</v>
+        <v>255.1535402432867</v>
       </c>
       <c r="K18" t="n">
-        <v>390.1555485292754</v>
+        <v>479.4705558591785</v>
       </c>
       <c r="L18" t="n">
-        <v>738.0999996190992</v>
+        <v>827.4150069490024</v>
       </c>
       <c r="M18" t="n">
-        <v>1163.491630733677</v>
+        <v>1252.806638063581</v>
       </c>
       <c r="N18" t="n">
-        <v>1614.550757447302</v>
+        <v>1703.865764777205</v>
       </c>
       <c r="O18" t="n">
-        <v>2004.96194163838</v>
+        <v>2094.276948968283</v>
       </c>
       <c r="P18" t="n">
-        <v>2298.968269966436</v>
+        <v>2388.283277296339</v>
       </c>
       <c r="Q18" t="n">
-        <v>2574.461857357622</v>
+        <v>2534.899525313172</v>
       </c>
       <c r="R18" t="n">
         <v>2574.461857357622</v>
@@ -5624,13 +5624,13 @@
         <v>2443.387074658301</v>
       </c>
       <c r="T18" t="n">
-        <v>2250.388865929737</v>
+        <v>2250.388865929738</v>
       </c>
       <c r="U18" t="n">
         <v>2022.315221320849</v>
       </c>
       <c r="V18" t="n">
-        <v>1787.163113089106</v>
+        <v>1787.163113089107</v>
       </c>
       <c r="W18" t="n">
         <v>1532.925756360905</v>
@@ -5649,10 +5649,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>752.8366182758019</v>
+        <v>752.8366182758025</v>
       </c>
       <c r="C19" t="n">
-        <v>634.6917277952321</v>
+        <v>634.6917277952326</v>
       </c>
       <c r="D19" t="n">
         <v>535.3663808302333</v>
@@ -5667,10 +5667,10 @@
         <v>225.1604988416069</v>
       </c>
       <c r="H19" t="n">
-        <v>129.0777296949669</v>
+        <v>129.077729694967</v>
       </c>
       <c r="I19" t="n">
-        <v>80.32152299996507</v>
+        <v>80.32152299996508</v>
       </c>
       <c r="J19" t="n">
         <v>170.1052165580256</v>
@@ -5694,31 +5694,31 @@
         <v>2146.234934604952</v>
       </c>
       <c r="Q19" t="n">
-        <v>2267.562310778187</v>
+        <v>2267.562310778188</v>
       </c>
       <c r="R19" t="n">
-        <v>2225.201159460215</v>
+        <v>2225.201159460216</v>
       </c>
       <c r="S19" t="n">
-        <v>2083.019012505046</v>
+        <v>2083.019012505047</v>
       </c>
       <c r="T19" t="n">
-        <v>1911.728013487592</v>
+        <v>1911.728013487593</v>
       </c>
       <c r="U19" t="n">
-        <v>1673.412409153751</v>
+        <v>1673.412409153752</v>
       </c>
       <c r="V19" t="n">
-        <v>1469.519213395201</v>
+        <v>1469.519213395202</v>
       </c>
       <c r="W19" t="n">
-        <v>1230.893335805578</v>
+        <v>1230.893335805579</v>
       </c>
       <c r="X19" t="n">
         <v>1053.695077354898</v>
       </c>
       <c r="Y19" t="n">
-        <v>883.6937906587046</v>
+        <v>883.6937906587052</v>
       </c>
     </row>
     <row r="20">
@@ -5731,7 +5731,7 @@
         <v>2014.083697722282</v>
       </c>
       <c r="C20" t="n">
-        <v>1695.912473229207</v>
+        <v>1695.912473229208</v>
       </c>
       <c r="D20" t="n">
         <v>1388.438067069794</v>
@@ -5740,7 +5740,7 @@
         <v>1053.441106918887</v>
       </c>
       <c r="F20" t="n">
-        <v>693.246494576616</v>
+        <v>693.2464945766162</v>
       </c>
       <c r="G20" t="n">
         <v>328.800630459512</v>
@@ -5752,25 +5752,25 @@
         <v>80.32152299996507</v>
       </c>
       <c r="J20" t="n">
-        <v>255.4995904282977</v>
+        <v>422.9052394486508</v>
       </c>
       <c r="K20" t="n">
-        <v>568.7846215199631</v>
+        <v>846.4588347125457</v>
       </c>
       <c r="L20" t="n">
-        <v>1407.828769409495</v>
+        <v>1272.018380197131</v>
       </c>
       <c r="M20" t="n">
-        <v>1913.015197751179</v>
+        <v>1777.204808538815</v>
       </c>
       <c r="N20" t="n">
-        <v>2823.952051669124</v>
+        <v>2295.17948982605</v>
       </c>
       <c r="O20" t="n">
-        <v>3299.725593928516</v>
+        <v>2770.953032085443</v>
       </c>
       <c r="P20" t="n">
-        <v>3671.286303978025</v>
+        <v>3461.09446322472</v>
       </c>
       <c r="Q20" t="n">
         <v>3902.140176603086</v>
@@ -5831,28 +5831,28 @@
         <v>80.32152299996507</v>
       </c>
       <c r="J21" t="n">
-        <v>165.8385329133835</v>
+        <v>255.1535402432862</v>
       </c>
       <c r="K21" t="n">
-        <v>390.1555485292754</v>
+        <v>479.4705558591781</v>
       </c>
       <c r="L21" t="n">
-        <v>738.0999996190992</v>
+        <v>827.415006949002</v>
       </c>
       <c r="M21" t="n">
-        <v>1163.491630733677</v>
+        <v>1252.80663806358</v>
       </c>
       <c r="N21" t="n">
-        <v>1614.550757447302</v>
+        <v>1703.865764777205</v>
       </c>
       <c r="O21" t="n">
-        <v>2004.96194163838</v>
+        <v>2094.276948968283</v>
       </c>
       <c r="P21" t="n">
-        <v>2298.968269966436</v>
+        <v>2388.283277296338</v>
       </c>
       <c r="Q21" t="n">
-        <v>2574.461857357622</v>
+        <v>2534.899525313172</v>
       </c>
       <c r="R21" t="n">
         <v>2574.461857357622</v>
@@ -5886,16 +5886,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>752.8366182758025</v>
+        <v>752.8366182758019</v>
       </c>
       <c r="C22" t="n">
-        <v>634.6917277952326</v>
+        <v>634.6917277952321</v>
       </c>
       <c r="D22" t="n">
-        <v>535.3663808302339</v>
+        <v>535.3663808302333</v>
       </c>
       <c r="E22" t="n">
-        <v>438.2445796951778</v>
+        <v>438.2445796951772</v>
       </c>
       <c r="F22" t="n">
         <v>342.1459246446038</v>
@@ -5925,37 +5925,37 @@
         <v>1533.729590671725</v>
       </c>
       <c r="O22" t="n">
-        <v>1872.604715798429</v>
+        <v>1872.604715798428</v>
       </c>
       <c r="P22" t="n">
         <v>2146.234934604952</v>
       </c>
       <c r="Q22" t="n">
-        <v>2267.562310778188</v>
+        <v>2267.562310778187</v>
       </c>
       <c r="R22" t="n">
-        <v>2225.201159460216</v>
+        <v>2225.201159460215</v>
       </c>
       <c r="S22" t="n">
-        <v>2083.019012505047</v>
+        <v>2083.019012505046</v>
       </c>
       <c r="T22" t="n">
-        <v>1911.728013487593</v>
+        <v>1911.728013487592</v>
       </c>
       <c r="U22" t="n">
-        <v>1673.412409153752</v>
+        <v>1673.412409153751</v>
       </c>
       <c r="V22" t="n">
-        <v>1469.519213395202</v>
+        <v>1469.519213395201</v>
       </c>
       <c r="W22" t="n">
-        <v>1230.893335805579</v>
+        <v>1230.893335805578</v>
       </c>
       <c r="X22" t="n">
         <v>1053.695077354898</v>
       </c>
       <c r="Y22" t="n">
-        <v>883.6937906587052</v>
+        <v>883.6937906587046</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2014.083697722283</v>
+        <v>2014.083697722282</v>
       </c>
       <c r="C23" t="n">
-        <v>1695.912473229208</v>
+        <v>1695.912473229207</v>
       </c>
       <c r="D23" t="n">
-        <v>1388.438067069795</v>
+        <v>1388.438067069794</v>
       </c>
       <c r="E23" t="n">
         <v>1053.441106918887</v>
       </c>
       <c r="F23" t="n">
-        <v>693.2464945766169</v>
+        <v>693.246494576616</v>
       </c>
       <c r="G23" t="n">
         <v>328.800630459512</v>
       </c>
       <c r="H23" t="n">
-        <v>80.3215229999651</v>
+        <v>80.32152299996507</v>
       </c>
       <c r="I23" t="n">
-        <v>80.3215229999651</v>
+        <v>80.32152299996507</v>
       </c>
       <c r="J23" t="n">
-        <v>255.4995904282978</v>
+        <v>422.9052394486508</v>
       </c>
       <c r="K23" t="n">
-        <v>568.7846215199633</v>
+        <v>736.1902705403163</v>
       </c>
       <c r="L23" t="n">
-        <v>994.3441670045488</v>
+        <v>1575.234418429848</v>
       </c>
       <c r="M23" t="n">
-        <v>1938.063170888277</v>
+        <v>2080.420846771532</v>
       </c>
       <c r="N23" t="n">
-        <v>2889.011307343377</v>
+        <v>2598.395528058767</v>
       </c>
       <c r="O23" t="n">
-        <v>3364.78484960277</v>
+        <v>3074.169070318159</v>
       </c>
       <c r="P23" t="n">
-        <v>3736.345559652279</v>
+        <v>3526.153718898972</v>
       </c>
       <c r="Q23" t="n">
-        <v>3967.199432277339</v>
+        <v>3967.199432277338</v>
       </c>
       <c r="R23" t="n">
-        <v>4016.076149998255</v>
+        <v>4016.076149998254</v>
       </c>
       <c r="S23" t="n">
-        <v>3952.823526667631</v>
+        <v>3952.82352666763</v>
       </c>
       <c r="T23" t="n">
-        <v>3796.916069191878</v>
+        <v>3796.916069191877</v>
       </c>
       <c r="U23" t="n">
-        <v>3594.163708400296</v>
+        <v>3594.163708400295</v>
       </c>
       <c r="V23" t="n">
-        <v>3313.892113504062</v>
+        <v>3313.892113504061</v>
       </c>
       <c r="W23" t="n">
-        <v>3011.914750681285</v>
+        <v>3011.914750681284</v>
       </c>
       <c r="X23" t="n">
         <v>2689.240284867542</v>
       </c>
       <c r="Y23" t="n">
-        <v>2349.892245339068</v>
+        <v>2349.892245339067</v>
       </c>
     </row>
     <row r="24">
@@ -6044,52 +6044,52 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>949.0986203703504</v>
+        <v>949.0986203703502</v>
       </c>
       <c r="C24" t="n">
-        <v>774.6455910892234</v>
+        <v>774.6455910892232</v>
       </c>
       <c r="D24" t="n">
-        <v>625.7111814279722</v>
+        <v>625.711181427972</v>
       </c>
       <c r="E24" t="n">
-        <v>466.4737264225166</v>
+        <v>466.4737264225165</v>
       </c>
       <c r="F24" t="n">
-        <v>319.9391684494016</v>
+        <v>319.9391684494015</v>
       </c>
       <c r="G24" t="n">
-        <v>183.4879425838004</v>
+        <v>183.4879425838003</v>
       </c>
       <c r="H24" t="n">
-        <v>92.13493950465529</v>
+        <v>92.13493950465526</v>
       </c>
       <c r="I24" t="n">
-        <v>80.3215229999651</v>
+        <v>80.32152299996507</v>
       </c>
       <c r="J24" t="n">
-        <v>165.8385329133836</v>
+        <v>255.1535402432862</v>
       </c>
       <c r="K24" t="n">
-        <v>519.0328879036283</v>
+        <v>479.4705558591781</v>
       </c>
       <c r="L24" t="n">
-        <v>866.9773389934521</v>
+        <v>827.415006949002</v>
       </c>
       <c r="M24" t="n">
-        <v>1292.36897010803</v>
+        <v>1252.80663806358</v>
       </c>
       <c r="N24" t="n">
-        <v>1743.428096821655</v>
+        <v>1703.865764777205</v>
       </c>
       <c r="O24" t="n">
-        <v>2133.839281012733</v>
+        <v>2094.276948968283</v>
       </c>
       <c r="P24" t="n">
-        <v>2427.845609340789</v>
+        <v>2388.283277296338</v>
       </c>
       <c r="Q24" t="n">
-        <v>2574.461857357622</v>
+        <v>2534.899525313172</v>
       </c>
       <c r="R24" t="n">
         <v>2574.461857357622</v>
@@ -6098,13 +6098,13 @@
         <v>2443.387074658301</v>
       </c>
       <c r="T24" t="n">
-        <v>2250.388865929738</v>
+        <v>2250.388865929737</v>
       </c>
       <c r="U24" t="n">
         <v>2022.315221320849</v>
       </c>
       <c r="V24" t="n">
-        <v>1787.163113089107</v>
+        <v>1787.163113089106</v>
       </c>
       <c r="W24" t="n">
         <v>1532.925756360905</v>
@@ -6123,43 +6123,43 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>752.8366182758018</v>
+        <v>752.8366182758019</v>
       </c>
       <c r="C25" t="n">
-        <v>634.6917277952319</v>
+        <v>634.6917277952321</v>
       </c>
       <c r="D25" t="n">
-        <v>535.3663808302332</v>
+        <v>535.3663808302333</v>
       </c>
       <c r="E25" t="n">
-        <v>438.2445796951771</v>
+        <v>438.2445796951772</v>
       </c>
       <c r="F25" t="n">
-        <v>342.1459246446037</v>
+        <v>342.1459246446038</v>
       </c>
       <c r="G25" t="n">
-        <v>225.1604988416067</v>
+        <v>225.1604988416069</v>
       </c>
       <c r="H25" t="n">
-        <v>129.0777296949668</v>
+        <v>129.0777296949669</v>
       </c>
       <c r="I25" t="n">
-        <v>80.3215229999651</v>
+        <v>80.32152299996507</v>
       </c>
       <c r="J25" t="n">
-        <v>170.1052165580251</v>
+        <v>170.1052165580256</v>
       </c>
       <c r="K25" t="n">
-        <v>415.4600593660784</v>
+        <v>415.4600593660789</v>
       </c>
       <c r="L25" t="n">
-        <v>771.0348060858119</v>
+        <v>771.0348060858121</v>
       </c>
       <c r="M25" t="n">
-        <v>1153.621584343369</v>
+        <v>1153.62158434337</v>
       </c>
       <c r="N25" t="n">
-        <v>1533.729590671724</v>
+        <v>1533.729590671725</v>
       </c>
       <c r="O25" t="n">
         <v>1872.604715798428</v>
@@ -6192,7 +6192,7 @@
         <v>1053.695077354898</v>
       </c>
       <c r="Y25" t="n">
-        <v>883.6937906587045</v>
+        <v>883.6937906587046</v>
       </c>
     </row>
     <row r="26">
@@ -6214,43 +6214,43 @@
         <v>1269.6601929299</v>
       </c>
       <c r="F26" t="n">
-        <v>858.6742881402924</v>
+        <v>858.6742881402922</v>
       </c>
       <c r="G26" t="n">
-        <v>443.4371315758516</v>
+        <v>443.4371315758513</v>
       </c>
       <c r="H26" t="n">
         <v>144.1667316689676</v>
       </c>
       <c r="I26" t="n">
-        <v>95.81998905859948</v>
+        <v>95.8199890585995</v>
       </c>
       <c r="J26" t="n">
-        <v>270.9980564869321</v>
+        <v>270.9980564869322</v>
       </c>
       <c r="K26" t="n">
-        <v>905.1870460240507</v>
+        <v>584.2830875785976</v>
       </c>
       <c r="L26" t="n">
-        <v>1744.231193913582</v>
+        <v>1423.327235468129</v>
       </c>
       <c r="M26" t="n">
-        <v>2694.43602041317</v>
+        <v>2373.532061967717</v>
       </c>
       <c r="N26" t="n">
-        <v>3212.410701700405</v>
+        <v>3324.480198422817</v>
       </c>
       <c r="O26" t="n">
-        <v>4065.176423409916</v>
+        <v>3800.253740682209</v>
       </c>
       <c r="P26" t="n">
-        <v>4446.209606909745</v>
+        <v>4236.01776615644</v>
       </c>
       <c r="Q26" t="n">
-        <v>4677.063479534806</v>
+        <v>4677.063479534807</v>
       </c>
       <c r="R26" t="n">
-        <v>4790.999452929974</v>
+        <v>4790.999452929975</v>
       </c>
       <c r="S26" t="n">
         <v>4676.955537152013</v>
@@ -6302,31 +6302,31 @@
         <v>107.6334055632897</v>
       </c>
       <c r="I27" t="n">
-        <v>95.81998905859948</v>
+        <v>95.8199890585995</v>
       </c>
       <c r="J27" t="n">
-        <v>181.336998972018</v>
+        <v>270.6520063019209</v>
       </c>
       <c r="K27" t="n">
-        <v>405.6540145879098</v>
+        <v>494.9690219178128</v>
       </c>
       <c r="L27" t="n">
-        <v>753.5984656777337</v>
+        <v>842.9134730076366</v>
       </c>
       <c r="M27" t="n">
-        <v>1178.990096792312</v>
+        <v>1268.305104122215</v>
       </c>
       <c r="N27" t="n">
-        <v>1758.926562880289</v>
+        <v>1719.364230835839</v>
       </c>
       <c r="O27" t="n">
-        <v>2149.337747071367</v>
+        <v>2109.775415026917</v>
       </c>
       <c r="P27" t="n">
-        <v>2443.344075399423</v>
+        <v>2403.781743354973</v>
       </c>
       <c r="Q27" t="n">
-        <v>2589.960323416256</v>
+        <v>2550.397991371807</v>
       </c>
       <c r="R27" t="n">
         <v>2589.960323416256</v>
@@ -6360,31 +6360,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>195.3674882009383</v>
+        <v>421.1772611199297</v>
       </c>
       <c r="C28" t="n">
-        <v>195.3674882009383</v>
+        <v>252.2410781920227</v>
       </c>
       <c r="D28" t="n">
-        <v>195.3674882009383</v>
+        <v>252.2410781920227</v>
       </c>
       <c r="E28" t="n">
-        <v>195.3674882009383</v>
+        <v>104.3279846096296</v>
       </c>
       <c r="F28" t="n">
-        <v>195.3674882009383</v>
+        <v>95.8199890585995</v>
       </c>
       <c r="G28" t="n">
-        <v>195.3674882009383</v>
+        <v>95.8199890585995</v>
       </c>
       <c r="H28" t="n">
-        <v>195.3674882009383</v>
+        <v>95.8199890585995</v>
       </c>
       <c r="I28" t="n">
-        <v>95.81998905859948</v>
+        <v>95.8199890585995</v>
       </c>
       <c r="J28" t="n">
-        <v>135.823136889025</v>
+        <v>135.8231368890251</v>
       </c>
       <c r="K28" t="n">
         <v>331.3974339694433</v>
@@ -6408,28 +6408,28 @@
         <v>1884.816411015742</v>
       </c>
       <c r="R28" t="n">
-        <v>1791.663967250433</v>
+        <v>1884.816411015742</v>
       </c>
       <c r="S28" t="n">
-        <v>1598.690527847927</v>
+        <v>1884.816411015742</v>
       </c>
       <c r="T28" t="n">
-        <v>1477.358173266511</v>
+        <v>1884.816411015742</v>
       </c>
       <c r="U28" t="n">
-        <v>1188.251276485333</v>
+        <v>1595.709514234564</v>
       </c>
       <c r="V28" t="n">
-        <v>933.5667882794464</v>
+        <v>1341.025026028678</v>
       </c>
       <c r="W28" t="n">
-        <v>644.1496182424858</v>
+        <v>1051.607855991717</v>
       </c>
       <c r="X28" t="n">
-        <v>416.1600673444684</v>
+        <v>823.6183050936995</v>
       </c>
       <c r="Y28" t="n">
-        <v>195.3674882009383</v>
+        <v>602.8257259501694</v>
       </c>
     </row>
     <row r="29">
@@ -6451,43 +6451,43 @@
         <v>1269.660192929899</v>
       </c>
       <c r="F29" t="n">
-        <v>858.674288140292</v>
+        <v>858.6742881402918</v>
       </c>
       <c r="G29" t="n">
-        <v>443.4371315758515</v>
+        <v>443.4371315758508</v>
       </c>
       <c r="H29" t="n">
         <v>144.1667316689676</v>
       </c>
       <c r="I29" t="n">
-        <v>95.81998905859948</v>
+        <v>95.8199890585995</v>
       </c>
       <c r="J29" t="n">
-        <v>270.9980564869321</v>
+        <v>438.4037055072852</v>
       </c>
       <c r="K29" t="n">
-        <v>584.2830875785976</v>
+        <v>1072.592695044404</v>
       </c>
       <c r="L29" t="n">
-        <v>1423.327235468129</v>
+        <v>1498.152240528989</v>
       </c>
       <c r="M29" t="n">
-        <v>2373.532061967717</v>
+        <v>2003.338668870673</v>
       </c>
       <c r="N29" t="n">
-        <v>3324.480198422817</v>
+        <v>2693.110613307653</v>
       </c>
       <c r="O29" t="n">
-        <v>4139.708152534488</v>
+        <v>3545.876335017163</v>
       </c>
       <c r="P29" t="n">
-        <v>4511.268862583997</v>
+        <v>4236.01776615644</v>
       </c>
       <c r="Q29" t="n">
-        <v>4742.122735209058</v>
+        <v>4677.063479534807</v>
       </c>
       <c r="R29" t="n">
-        <v>4790.999452929974</v>
+        <v>4790.999452929975</v>
       </c>
       <c r="S29" t="n">
         <v>4676.955537152014</v>
@@ -6539,31 +6539,31 @@
         <v>107.6334055632897</v>
       </c>
       <c r="I30" t="n">
-        <v>95.81998905859948</v>
+        <v>95.8199890585995</v>
       </c>
       <c r="J30" t="n">
-        <v>181.336998972018</v>
+        <v>270.6520063019209</v>
       </c>
       <c r="K30" t="n">
-        <v>534.5313539622625</v>
+        <v>494.9690219178128</v>
       </c>
       <c r="L30" t="n">
-        <v>882.4758050520863</v>
+        <v>842.9134730076366</v>
       </c>
       <c r="M30" t="n">
-        <v>1307.867436166664</v>
+        <v>1268.305104122215</v>
       </c>
       <c r="N30" t="n">
-        <v>1758.926562880289</v>
+        <v>1719.364230835839</v>
       </c>
       <c r="O30" t="n">
-        <v>2149.337747071367</v>
+        <v>2109.775415026917</v>
       </c>
       <c r="P30" t="n">
-        <v>2443.344075399423</v>
+        <v>2403.781743354973</v>
       </c>
       <c r="Q30" t="n">
-        <v>2589.960323416256</v>
+        <v>2550.397991371807</v>
       </c>
       <c r="R30" t="n">
         <v>2589.960323416256</v>
@@ -6597,31 +6597,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>315.4101304610936</v>
+        <v>95.8199890585995</v>
       </c>
       <c r="C31" t="n">
-        <v>315.4101304610936</v>
+        <v>95.8199890585995</v>
       </c>
       <c r="D31" t="n">
-        <v>315.4101304610936</v>
+        <v>95.8199890585995</v>
       </c>
       <c r="E31" t="n">
-        <v>315.4101304610936</v>
+        <v>95.8199890585995</v>
       </c>
       <c r="F31" t="n">
-        <v>315.4101304610936</v>
+        <v>95.8199890585995</v>
       </c>
       <c r="G31" t="n">
-        <v>315.4101304610936</v>
+        <v>95.8199890585995</v>
       </c>
       <c r="H31" t="n">
-        <v>168.5360688671167</v>
+        <v>95.8199890585995</v>
       </c>
       <c r="I31" t="n">
-        <v>95.81998905859948</v>
+        <v>95.8199890585995</v>
       </c>
       <c r="J31" t="n">
-        <v>135.823136889025</v>
+        <v>135.8231368890251</v>
       </c>
       <c r="K31" t="n">
         <v>331.3974339694433</v>
@@ -6663,10 +6663,10 @@
         <v>543.3996813591109</v>
       </c>
       <c r="X31" t="n">
-        <v>315.4101304610936</v>
+        <v>498.2610330323694</v>
       </c>
       <c r="Y31" t="n">
-        <v>315.4101304610936</v>
+        <v>277.4684538888392</v>
       </c>
     </row>
     <row r="32">
@@ -6676,64 +6676,64 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2359.216133007175</v>
+        <v>2359.216133007174</v>
       </c>
       <c r="C32" t="n">
         <v>1993.464693930837</v>
       </c>
       <c r="D32" t="n">
-        <v>1638.41007318816</v>
+        <v>1638.410073188161</v>
       </c>
       <c r="E32" t="n">
         <v>1255.83289845399</v>
       </c>
       <c r="F32" t="n">
-        <v>848.0580715284565</v>
+        <v>848.0580715284566</v>
       </c>
       <c r="G32" t="n">
         <v>436.0319928280896</v>
       </c>
       <c r="H32" t="n">
-        <v>139.972670785279</v>
+        <v>139.9726707852791</v>
       </c>
       <c r="I32" t="n">
-        <v>94.83700603898498</v>
+        <v>94.837006038985</v>
       </c>
       <c r="J32" t="n">
-        <v>270.0150734673176</v>
+        <v>437.4207224876707</v>
       </c>
       <c r="K32" t="n">
-        <v>583.3001045589831</v>
+        <v>1071.609712024789</v>
       </c>
       <c r="L32" t="n">
-        <v>1422.344252448514</v>
+        <v>1497.169257509375</v>
       </c>
       <c r="M32" t="n">
-        <v>2372.549078948103</v>
+        <v>2002.355685851059</v>
       </c>
       <c r="N32" t="n">
-        <v>3323.497215403203</v>
+        <v>2643.961462326929</v>
       </c>
       <c r="O32" t="n">
-        <v>3799.270757662595</v>
+        <v>3496.727184036439</v>
       </c>
       <c r="P32" t="n">
-        <v>4186.868615175715</v>
+        <v>4186.868615175716</v>
       </c>
       <c r="Q32" t="n">
-        <v>4627.914328554081</v>
+        <v>4627.914328554082</v>
       </c>
       <c r="R32" t="n">
-        <v>4741.850301949249</v>
+        <v>4741.85030194925</v>
       </c>
       <c r="S32" t="n">
-        <v>4631.017464035363</v>
+        <v>4631.017464035364</v>
       </c>
       <c r="T32" t="n">
-        <v>4427.529791976347</v>
+        <v>4427.529791976348</v>
       </c>
       <c r="U32" t="n">
-        <v>4177.197216601502</v>
+        <v>4177.197216601503</v>
       </c>
       <c r="V32" t="n">
         <v>3849.345407122006</v>
@@ -6776,31 +6776,31 @@
         <v>106.6504225436752</v>
       </c>
       <c r="I33" t="n">
-        <v>94.83700603898498</v>
+        <v>94.837006038985</v>
       </c>
       <c r="J33" t="n">
-        <v>180.3540159524035</v>
+        <v>269.6690232823064</v>
       </c>
       <c r="K33" t="n">
-        <v>533.548370942648</v>
+        <v>493.9860388981983</v>
       </c>
       <c r="L33" t="n">
-        <v>881.4928220324718</v>
+        <v>841.9304899880221</v>
       </c>
       <c r="M33" t="n">
-        <v>1306.88445314705</v>
+        <v>1267.3221211026</v>
       </c>
       <c r="N33" t="n">
-        <v>1757.943579860675</v>
+        <v>1718.381247816225</v>
       </c>
       <c r="O33" t="n">
-        <v>2148.354764051753</v>
+        <v>2108.792432007303</v>
       </c>
       <c r="P33" t="n">
-        <v>2442.361092379808</v>
+        <v>2402.798760335359</v>
       </c>
       <c r="Q33" t="n">
-        <v>2588.977340396642</v>
+        <v>2549.415008352192</v>
       </c>
       <c r="R33" t="n">
         <v>2588.977340396642</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>452.0234777078646</v>
+        <v>404.1046621435642</v>
       </c>
       <c r="C34" t="n">
-        <v>452.0234777078646</v>
+        <v>404.1046621435642</v>
       </c>
       <c r="D34" t="n">
-        <v>452.0234777078646</v>
+        <v>404.1046621435642</v>
       </c>
       <c r="E34" t="n">
-        <v>307.3214619895456</v>
+        <v>259.4026464252451</v>
       </c>
       <c r="F34" t="n">
-        <v>163.6425923557093</v>
+        <v>259.4026464252451</v>
       </c>
       <c r="G34" t="n">
-        <v>163.6425923557093</v>
+        <v>94.837006038985</v>
       </c>
       <c r="H34" t="n">
-        <v>94.83700603898498</v>
+        <v>94.837006038985</v>
       </c>
       <c r="I34" t="n">
-        <v>94.83700603898498</v>
+        <v>94.837006038985</v>
       </c>
       <c r="J34" t="n">
-        <v>137.9873312839895</v>
+        <v>137.9873312839894</v>
       </c>
       <c r="K34" t="n">
-        <v>336.7088057789869</v>
+        <v>336.7088057789866</v>
       </c>
       <c r="L34" t="n">
-        <v>645.6501841856643</v>
+        <v>645.6501841856639</v>
       </c>
       <c r="M34" t="n">
-        <v>981.6035941301661</v>
+        <v>981.6035941301656</v>
       </c>
       <c r="N34" t="n">
-        <v>1315.078232145465</v>
+        <v>1315.078232145464</v>
       </c>
       <c r="O34" t="n">
-        <v>1607.319988959112</v>
+        <v>1607.319988959111</v>
       </c>
       <c r="P34" t="n">
-        <v>1834.31683945258</v>
+        <v>1834.316839452579</v>
       </c>
       <c r="Q34" t="n">
-        <v>1909.01084731276</v>
+        <v>1909.010847312758</v>
       </c>
       <c r="R34" t="n">
-        <v>1909.01084731276</v>
+        <v>1853.895059993973</v>
       </c>
       <c r="S34" t="n">
-        <v>1719.248485774327</v>
+        <v>1664.132698455541</v>
       </c>
       <c r="T34" t="n">
-        <v>1500.37727217361</v>
+        <v>1445.261484854823</v>
       </c>
       <c r="U34" t="n">
-        <v>1214.481453256507</v>
+        <v>1159.36566593772</v>
       </c>
       <c r="V34" t="n">
-        <v>963.0080429146942</v>
+        <v>907.892255595907</v>
       </c>
       <c r="W34" t="n">
-        <v>676.8019507418078</v>
+        <v>621.6861634230204</v>
       </c>
       <c r="X34" t="n">
-        <v>452.0234777078646</v>
+        <v>621.6861634230204</v>
       </c>
       <c r="Y34" t="n">
-        <v>452.0234777078646</v>
+        <v>404.1046621435642</v>
       </c>
     </row>
     <row r="35">
@@ -6922,49 +6922,49 @@
         <v>1388.438067069794</v>
       </c>
       <c r="E35" t="n">
-        <v>1053.441106918886</v>
+        <v>1053.441106918887</v>
       </c>
       <c r="F35" t="n">
-        <v>693.2464945766159</v>
+        <v>693.246494576616</v>
       </c>
       <c r="G35" t="n">
         <v>328.8006304595121</v>
       </c>
       <c r="H35" t="n">
-        <v>80.32152299996507</v>
+        <v>80.32152299996508</v>
       </c>
       <c r="I35" t="n">
-        <v>80.32152299996507</v>
+        <v>80.32152299996508</v>
       </c>
       <c r="J35" t="n">
-        <v>255.4995904282977</v>
+        <v>422.9052394486508</v>
       </c>
       <c r="K35" t="n">
-        <v>568.7846215199631</v>
+        <v>736.1902705403163</v>
       </c>
       <c r="L35" t="n">
-        <v>1407.828769409495</v>
+        <v>1161.749816024902</v>
       </c>
       <c r="M35" t="n">
-        <v>1913.015197751179</v>
+        <v>1666.936244366586</v>
       </c>
       <c r="N35" t="n">
-        <v>2863.963334206278</v>
+        <v>2184.910925653821</v>
       </c>
       <c r="O35" t="n">
-        <v>3339.736876465671</v>
+        <v>2770.953032085443</v>
       </c>
       <c r="P35" t="n">
-        <v>3711.29758651518</v>
+        <v>3461.09446322472</v>
       </c>
       <c r="Q35" t="n">
-        <v>3967.199432277338</v>
+        <v>3902.140176603086</v>
       </c>
       <c r="R35" t="n">
         <v>4016.076149998254</v>
       </c>
       <c r="S35" t="n">
-        <v>3952.82352666763</v>
+        <v>3952.823526667631</v>
       </c>
       <c r="T35" t="n">
         <v>3796.916069191877</v>
@@ -6973,10 +6973,10 @@
         <v>3594.163708400295</v>
       </c>
       <c r="V35" t="n">
-        <v>3313.892113504061</v>
+        <v>3313.892113504062</v>
       </c>
       <c r="W35" t="n">
-        <v>3011.914750681284</v>
+        <v>3011.914750681285</v>
       </c>
       <c r="X35" t="n">
         <v>2689.240284867542</v>
@@ -6992,52 +6992,52 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>949.0986203703502</v>
+        <v>949.0986203703504</v>
       </c>
       <c r="C36" t="n">
-        <v>774.6455910892232</v>
+        <v>774.6455910892234</v>
       </c>
       <c r="D36" t="n">
-        <v>625.711181427972</v>
+        <v>625.7111814279722</v>
       </c>
       <c r="E36" t="n">
-        <v>466.4737264225165</v>
+        <v>466.4737264225166</v>
       </c>
       <c r="F36" t="n">
-        <v>319.9391684494015</v>
+        <v>319.9391684494016</v>
       </c>
       <c r="G36" t="n">
-        <v>183.4879425838003</v>
+        <v>183.4879425838004</v>
       </c>
       <c r="H36" t="n">
-        <v>92.13493950465526</v>
+        <v>92.13493950465528</v>
       </c>
       <c r="I36" t="n">
-        <v>80.32152299996507</v>
+        <v>80.32152299996508</v>
       </c>
       <c r="J36" t="n">
-        <v>165.8385329133835</v>
+        <v>255.1535402432867</v>
       </c>
       <c r="K36" t="n">
-        <v>519.0328879036279</v>
+        <v>479.4705558591785</v>
       </c>
       <c r="L36" t="n">
-        <v>866.9773389934517</v>
+        <v>827.4150069490024</v>
       </c>
       <c r="M36" t="n">
-        <v>1292.36897010803</v>
+        <v>1252.806638063581</v>
       </c>
       <c r="N36" t="n">
-        <v>1743.428096821654</v>
+        <v>1703.865764777205</v>
       </c>
       <c r="O36" t="n">
-        <v>2133.839281012732</v>
+        <v>2094.276948968283</v>
       </c>
       <c r="P36" t="n">
-        <v>2427.845609340788</v>
+        <v>2388.283277296339</v>
       </c>
       <c r="Q36" t="n">
-        <v>2574.461857357622</v>
+        <v>2534.899525313172</v>
       </c>
       <c r="R36" t="n">
         <v>2574.461857357622</v>
@@ -7046,13 +7046,13 @@
         <v>2443.387074658301</v>
       </c>
       <c r="T36" t="n">
-        <v>2250.388865929737</v>
+        <v>2250.388865929738</v>
       </c>
       <c r="U36" t="n">
         <v>2022.315221320849</v>
       </c>
       <c r="V36" t="n">
-        <v>1787.163113089106</v>
+        <v>1787.163113089107</v>
       </c>
       <c r="W36" t="n">
         <v>1532.925756360905</v>
@@ -7092,7 +7092,7 @@
         <v>129.077729694967</v>
       </c>
       <c r="I37" t="n">
-        <v>80.32152299996507</v>
+        <v>80.32152299996508</v>
       </c>
       <c r="J37" t="n">
         <v>170.1052165580256</v>
@@ -7168,37 +7168,37 @@
         <v>328.8006304595121</v>
       </c>
       <c r="H38" t="n">
-        <v>80.3215229999651</v>
+        <v>80.32152299996508</v>
       </c>
       <c r="I38" t="n">
-        <v>80.3215229999651</v>
+        <v>80.32152299996508</v>
       </c>
       <c r="J38" t="n">
-        <v>255.4995904282978</v>
+        <v>422.9052394486508</v>
       </c>
       <c r="K38" t="n">
-        <v>568.7846215199633</v>
+        <v>846.4588347125461</v>
       </c>
       <c r="L38" t="n">
-        <v>994.3441670045488</v>
+        <v>1272.018380197132</v>
       </c>
       <c r="M38" t="n">
-        <v>1944.548993504137</v>
+        <v>1777.204808538816</v>
       </c>
       <c r="N38" t="n">
-        <v>2889.011307343377</v>
+        <v>2295.179489826051</v>
       </c>
       <c r="O38" t="n">
-        <v>3364.78484960277</v>
+        <v>2770.953032085443</v>
       </c>
       <c r="P38" t="n">
-        <v>3736.345559652279</v>
+        <v>3461.09446322472</v>
       </c>
       <c r="Q38" t="n">
-        <v>3967.199432277339</v>
+        <v>3902.140176603086</v>
       </c>
       <c r="R38" t="n">
-        <v>4016.076149998255</v>
+        <v>4016.076149998254</v>
       </c>
       <c r="S38" t="n">
         <v>3952.823526667631</v>
@@ -7247,34 +7247,34 @@
         <v>183.4879425838004</v>
       </c>
       <c r="H39" t="n">
-        <v>92.13493950465529</v>
+        <v>92.13493950465528</v>
       </c>
       <c r="I39" t="n">
-        <v>80.3215229999651</v>
+        <v>80.32152299996508</v>
       </c>
       <c r="J39" t="n">
-        <v>165.8385329133836</v>
+        <v>255.1535402432867</v>
       </c>
       <c r="K39" t="n">
-        <v>519.0328879036283</v>
+        <v>479.4705558591785</v>
       </c>
       <c r="L39" t="n">
-        <v>866.9773389934521</v>
+        <v>827.4150069490024</v>
       </c>
       <c r="M39" t="n">
-        <v>1292.36897010803</v>
+        <v>1252.806638063581</v>
       </c>
       <c r="N39" t="n">
-        <v>1743.428096821655</v>
+        <v>1703.865764777205</v>
       </c>
       <c r="O39" t="n">
-        <v>2133.839281012733</v>
+        <v>2094.276948968283</v>
       </c>
       <c r="P39" t="n">
-        <v>2427.845609340789</v>
+        <v>2388.283277296339</v>
       </c>
       <c r="Q39" t="n">
-        <v>2574.461857357622</v>
+        <v>2534.899525313172</v>
       </c>
       <c r="R39" t="n">
         <v>2574.461857357622</v>
@@ -7308,43 +7308,43 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>752.836618275802</v>
+        <v>752.8366182758023</v>
       </c>
       <c r="C40" t="n">
-        <v>634.6917277952322</v>
+        <v>634.6917277952324</v>
       </c>
       <c r="D40" t="n">
-        <v>535.3663808302334</v>
+        <v>535.3663808302337</v>
       </c>
       <c r="E40" t="n">
-        <v>438.2445796951773</v>
+        <v>438.2445796951775</v>
       </c>
       <c r="F40" t="n">
-        <v>342.145924644604</v>
+        <v>342.1459246446041</v>
       </c>
       <c r="G40" t="n">
-        <v>225.1604988416069</v>
+        <v>225.1604988416071</v>
       </c>
       <c r="H40" t="n">
-        <v>129.077729694967</v>
+        <v>129.0777296949671</v>
       </c>
       <c r="I40" t="n">
-        <v>80.3215229999651</v>
+        <v>80.32152299996508</v>
       </c>
       <c r="J40" t="n">
-        <v>170.1052165580256</v>
+        <v>170.1052165580258</v>
       </c>
       <c r="K40" t="n">
-        <v>415.4600593660788</v>
+        <v>415.4600593660791</v>
       </c>
       <c r="L40" t="n">
-        <v>771.0348060858121</v>
+        <v>771.0348060858124</v>
       </c>
       <c r="M40" t="n">
         <v>1153.62158434337</v>
       </c>
       <c r="N40" t="n">
-        <v>1533.729590671724</v>
+        <v>1533.729590671725</v>
       </c>
       <c r="O40" t="n">
         <v>1872.604715798428</v>
@@ -7371,13 +7371,13 @@
         <v>1469.519213395202</v>
       </c>
       <c r="W40" t="n">
-        <v>1230.893335805578</v>
+        <v>1230.893335805579</v>
       </c>
       <c r="X40" t="n">
         <v>1053.695077354898</v>
       </c>
       <c r="Y40" t="n">
-        <v>883.6937906587048</v>
+        <v>883.693790658705</v>
       </c>
     </row>
     <row r="41">
@@ -7396,13 +7396,13 @@
         <v>1388.438067069794</v>
       </c>
       <c r="E41" t="n">
-        <v>1053.441106918886</v>
+        <v>1053.441106918887</v>
       </c>
       <c r="F41" t="n">
-        <v>693.2464945766159</v>
+        <v>693.246494576616</v>
       </c>
       <c r="G41" t="n">
-        <v>328.8006304595121</v>
+        <v>328.800630459512</v>
       </c>
       <c r="H41" t="n">
         <v>80.3215229999651</v>
@@ -7411,28 +7411,28 @@
         <v>80.3215229999651</v>
       </c>
       <c r="J41" t="n">
-        <v>255.4995904282978</v>
+        <v>422.9052394486508</v>
       </c>
       <c r="K41" t="n">
-        <v>568.7846215199633</v>
+        <v>846.4588347125466</v>
       </c>
       <c r="L41" t="n">
-        <v>994.3441670045488</v>
+        <v>1272.018380197132</v>
       </c>
       <c r="M41" t="n">
-        <v>1938.063170888277</v>
+        <v>1777.204808538816</v>
       </c>
       <c r="N41" t="n">
-        <v>2889.011307343377</v>
+        <v>2295.179489826051</v>
       </c>
       <c r="O41" t="n">
-        <v>3364.78484960277</v>
+        <v>2770.953032085444</v>
       </c>
       <c r="P41" t="n">
-        <v>3736.345559652279</v>
+        <v>3461.094463224721</v>
       </c>
       <c r="Q41" t="n">
-        <v>3967.199432277339</v>
+        <v>3902.140176603087</v>
       </c>
       <c r="R41" t="n">
         <v>4016.076149998255</v>
@@ -7441,16 +7441,16 @@
         <v>3952.823526667631</v>
       </c>
       <c r="T41" t="n">
-        <v>3796.916069191878</v>
+        <v>3796.916069191877</v>
       </c>
       <c r="U41" t="n">
-        <v>3594.163708400296</v>
+        <v>3594.163708400295</v>
       </c>
       <c r="V41" t="n">
-        <v>3313.892113504062</v>
+        <v>3313.892113504061</v>
       </c>
       <c r="W41" t="n">
-        <v>3011.914750681285</v>
+        <v>3011.914750681284</v>
       </c>
       <c r="X41" t="n">
         <v>2689.240284867542</v>
@@ -7490,25 +7490,25 @@
         <v>80.3215229999651</v>
       </c>
       <c r="J42" t="n">
-        <v>290.6686579003883</v>
+        <v>165.8385329133836</v>
       </c>
       <c r="K42" t="n">
-        <v>514.9856735162803</v>
+        <v>390.1555485292754</v>
       </c>
       <c r="L42" t="n">
-        <v>862.9301246061041</v>
+        <v>738.0999996190993</v>
       </c>
       <c r="M42" t="n">
-        <v>1288.321755720682</v>
+        <v>1163.491630733678</v>
       </c>
       <c r="N42" t="n">
-        <v>1739.380882434307</v>
+        <v>1743.428096821655</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.792066625385</v>
+        <v>2133.839281012733</v>
       </c>
       <c r="P42" t="n">
-        <v>2423.79839495344</v>
+        <v>2427.845609340789</v>
       </c>
       <c r="Q42" t="n">
         <v>2574.461857357622</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>752.8366182758023</v>
+        <v>752.836618275802</v>
       </c>
       <c r="C43" t="n">
-        <v>634.6917277952323</v>
+        <v>634.6917277952322</v>
       </c>
       <c r="D43" t="n">
-        <v>535.3663808302335</v>
+        <v>535.3663808302334</v>
       </c>
       <c r="E43" t="n">
-        <v>438.2445796951774</v>
+        <v>438.2445796951773</v>
       </c>
       <c r="F43" t="n">
-        <v>342.1459246446041</v>
+        <v>342.145924644604</v>
       </c>
       <c r="G43" t="n">
-        <v>225.160498841607</v>
+        <v>225.1604988416069</v>
       </c>
       <c r="H43" t="n">
-        <v>129.0777296949671</v>
+        <v>129.077729694967</v>
       </c>
       <c r="I43" t="n">
         <v>80.3215229999651</v>
@@ -7572,19 +7572,19 @@
         <v>170.1052165580256</v>
       </c>
       <c r="K43" t="n">
-        <v>415.4600593660789</v>
+        <v>415.460059366079</v>
       </c>
       <c r="L43" t="n">
         <v>771.0348060858123</v>
       </c>
       <c r="M43" t="n">
-        <v>1153.62158434337</v>
+        <v>1153.621584343371</v>
       </c>
       <c r="N43" t="n">
         <v>1533.729590671725</v>
       </c>
       <c r="O43" t="n">
-        <v>1872.604715798428</v>
+        <v>1872.604715798429</v>
       </c>
       <c r="P43" t="n">
         <v>2146.234934604952</v>
@@ -7602,19 +7602,19 @@
         <v>1911.728013487593</v>
       </c>
       <c r="U43" t="n">
-        <v>1673.412409153752</v>
+        <v>1673.412409153751</v>
       </c>
       <c r="V43" t="n">
-        <v>1469.519213395202</v>
+        <v>1469.519213395201</v>
       </c>
       <c r="W43" t="n">
-        <v>1230.893335805579</v>
+        <v>1230.893335805578</v>
       </c>
       <c r="X43" t="n">
         <v>1053.695077354898</v>
       </c>
       <c r="Y43" t="n">
-        <v>883.693790658705</v>
+        <v>883.6937906587048</v>
       </c>
     </row>
     <row r="44">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2014.083697722283</v>
+        <v>2014.083697722281</v>
       </c>
       <c r="C44" t="n">
-        <v>1695.912473229208</v>
+        <v>1695.912473229207</v>
       </c>
       <c r="D44" t="n">
         <v>1388.438067069794</v>
       </c>
       <c r="E44" t="n">
-        <v>1053.441106918887</v>
+        <v>1053.441106918886</v>
       </c>
       <c r="F44" t="n">
-        <v>693.2464945766161</v>
+        <v>693.2464945766159</v>
       </c>
       <c r="G44" t="n">
         <v>328.8006304595121</v>
@@ -7648,25 +7648,25 @@
         <v>80.3215229999651</v>
       </c>
       <c r="J44" t="n">
-        <v>255.4995904282978</v>
+        <v>422.9052394486508</v>
       </c>
       <c r="K44" t="n">
-        <v>889.6885799654164</v>
+        <v>736.1902705403163</v>
       </c>
       <c r="L44" t="n">
-        <v>1315.248125450002</v>
+        <v>1161.749816024902</v>
       </c>
       <c r="M44" t="n">
-        <v>2265.45295194959</v>
+        <v>1666.936244366586</v>
       </c>
       <c r="N44" t="n">
-        <v>2823.952051669125</v>
+        <v>2184.910925653821</v>
       </c>
       <c r="O44" t="n">
-        <v>3299.725593928517</v>
+        <v>2770.953032085444</v>
       </c>
       <c r="P44" t="n">
-        <v>3671.286303978026</v>
+        <v>3461.094463224721</v>
       </c>
       <c r="Q44" t="n">
         <v>3902.140176603087</v>
@@ -7678,22 +7678,22 @@
         <v>3952.823526667631</v>
       </c>
       <c r="T44" t="n">
-        <v>3796.916069191878</v>
+        <v>3796.916069191877</v>
       </c>
       <c r="U44" t="n">
-        <v>3594.163708400296</v>
+        <v>3594.163708400295</v>
       </c>
       <c r="V44" t="n">
-        <v>3313.892113504062</v>
+        <v>3313.892113504061</v>
       </c>
       <c r="W44" t="n">
-        <v>3011.914750681285</v>
+        <v>3011.914750681284</v>
       </c>
       <c r="X44" t="n">
-        <v>2689.240284867542</v>
+        <v>2689.240284867541</v>
       </c>
       <c r="Y44" t="n">
-        <v>2349.892245339067</v>
+        <v>2349.892245339066</v>
       </c>
     </row>
     <row r="45">
@@ -7727,28 +7727,28 @@
         <v>80.3215229999651</v>
       </c>
       <c r="J45" t="n">
-        <v>165.8385329133836</v>
+        <v>255.1535402432867</v>
       </c>
       <c r="K45" t="n">
-        <v>390.1555485292754</v>
+        <v>479.4705558591785</v>
       </c>
       <c r="L45" t="n">
-        <v>738.0999996190993</v>
+        <v>827.4150069490024</v>
       </c>
       <c r="M45" t="n">
-        <v>1163.491630733678</v>
+        <v>1252.806638063581</v>
       </c>
       <c r="N45" t="n">
-        <v>1743.428096821655</v>
+        <v>1703.865764777205</v>
       </c>
       <c r="O45" t="n">
-        <v>2133.839281012733</v>
+        <v>2094.276948968283</v>
       </c>
       <c r="P45" t="n">
-        <v>2427.845609340789</v>
+        <v>2388.283277296339</v>
       </c>
       <c r="Q45" t="n">
-        <v>2574.461857357622</v>
+        <v>2534.899525313172</v>
       </c>
       <c r="R45" t="n">
         <v>2574.461857357622</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>752.8366182758023</v>
+        <v>752.8366182758025</v>
       </c>
       <c r="C46" t="n">
-        <v>634.6917277952322</v>
+        <v>634.6917277952326</v>
       </c>
       <c r="D46" t="n">
-        <v>535.3663808302334</v>
+        <v>535.3663808302339</v>
       </c>
       <c r="E46" t="n">
-        <v>438.2445796951773</v>
+        <v>438.2445796951772</v>
       </c>
       <c r="F46" t="n">
-        <v>342.145924644604</v>
+        <v>342.1459246446038</v>
       </c>
       <c r="G46" t="n">
         <v>225.1604988416069</v>
@@ -7821,7 +7821,7 @@
         <v>1533.729590671725</v>
       </c>
       <c r="O46" t="n">
-        <v>1872.604715798428</v>
+        <v>1872.604715798429</v>
       </c>
       <c r="P46" t="n">
         <v>2146.234934604952</v>
@@ -7851,7 +7851,7 @@
         <v>1053.695077354898</v>
       </c>
       <c r="Y46" t="n">
-        <v>883.693790658705</v>
+        <v>883.6937906587052</v>
       </c>
     </row>
   </sheetData>
@@ -7984,19 +7984,19 @@
         <v>235.3925885601156</v>
       </c>
       <c r="L2" t="n">
-        <v>250.4508600602684</v>
+        <v>251.0691524851223</v>
       </c>
       <c r="M2" t="n">
         <v>245.6489707424078</v>
       </c>
       <c r="N2" t="n">
-        <v>229.4130635965909</v>
+        <v>244.097508686872</v>
       </c>
       <c r="O2" t="n">
         <v>230.0982114216867</v>
       </c>
       <c r="P2" t="n">
-        <v>246.5357332704046</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8060,25 +8060,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>153.144176489494</v>
       </c>
       <c r="L3" t="n">
         <v>153.8571172950092</v>
       </c>
       <c r="M3" t="n">
-        <v>156.8184790122994</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O3" t="n">
-        <v>157.8989819595795</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P3" t="n">
-        <v>149.2771449294653</v>
+        <v>148.6588525046114</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>155.2845116011566</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8221,19 +8221,19 @@
         <v>235.3925885601156</v>
       </c>
       <c r="L5" t="n">
-        <v>235.7664149699872</v>
+        <v>250.4508600602684</v>
       </c>
       <c r="M5" t="n">
         <v>230.3462332272727</v>
       </c>
       <c r="N5" t="n">
-        <v>244.097508686872</v>
+        <v>244.715801111726</v>
       </c>
       <c r="O5" t="n">
         <v>245.4009489368218</v>
       </c>
       <c r="P5" t="n">
-        <v>246.5357332704046</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8297,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>153.144176489494</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
         <v>138.5543797798742</v>
@@ -8306,10 +8306,10 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N6" t="n">
-        <v>131.3417120833333</v>
+        <v>146.0261571736144</v>
       </c>
       <c r="O6" t="n">
-        <v>157.2806895347256</v>
+        <v>157.8989819595795</v>
       </c>
       <c r="P6" t="n">
         <v>149.2771449294653</v>
@@ -8385,10 +8385,10 @@
         <v>154.2285214627401</v>
       </c>
       <c r="N7" t="n">
-        <v>142.9882819803682</v>
+        <v>142.3699895555143</v>
       </c>
       <c r="O7" t="n">
-        <v>153.1409835421239</v>
+        <v>153.7592759669778</v>
       </c>
       <c r="P7" t="n">
         <v>135.0065633140411</v>
@@ -8464,10 +8464,10 @@
         <v>256.8215099922226</v>
       </c>
       <c r="N8" t="n">
-        <v>257.0030888569071</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O8" t="n">
-        <v>230.0982114216867</v>
+        <v>257.6882366820029</v>
       </c>
       <c r="P8" t="n">
         <v>258.8230210155857</v>
@@ -8534,16 +8534,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>165.4314642346751</v>
       </c>
       <c r="L9" t="n">
-        <v>165.029656544824</v>
+        <v>166.1444050401903</v>
       </c>
       <c r="M9" t="n">
         <v>169.7240591823345</v>
       </c>
       <c r="N9" t="n">
-        <v>158.9317373436494</v>
+        <v>157.8169888482831</v>
       </c>
       <c r="O9" t="n">
         <v>142.5962444444444</v>
@@ -8552,7 +8552,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
-        <v>167.5717993463377</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8689,31 +8689,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>323.6973787126618</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>106.650175865203</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8768,7 +8768,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8780,7 +8780,7 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>4.088095340755501</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -8789,7 +8789,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>130.1791306811639</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>5.559718251270766</v>
@@ -8926,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
         <v>324.1454125711647</v>
@@ -8944,13 +8944,13 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>321.3506743129795</v>
       </c>
       <c r="Q14" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>22.05001052664842</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9005,7 +9005,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>90.21717912111424</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9026,10 +9026,10 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>4.088095340755217</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>5.559718251270766</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9163,19 +9163,19 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>13.13437388591731</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>430.7955884363681</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
@@ -9242,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>90.21717912111424</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9263,10 +9263,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>130.1791306811639</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>5.559718251270766</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9400,28 +9400,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>111.3823880527571</v>
       </c>
       <c r="L20" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>396.9314875057672</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9479,7 +9479,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>90.21717912111382</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9500,10 +9500,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>130.1791306811639</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>5.559718251270766</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9637,28 +9637,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>442.962197517217</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>81.23630154677176</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -9716,10 +9716,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>90.21717912111382</v>
       </c>
       <c r="K24" t="n">
-        <v>130.1791306811645</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9740,7 +9740,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>5.559718251270766</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9877,7 +9877,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>417.6612145504504</v>
@@ -9886,16 +9886,16 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>9.568155000323941</v>
+        <v>64.8518337623459</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -9953,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>90.21717912111404</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9965,7 +9965,7 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>130.1791306811642</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -9977,7 +9977,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>5.559718251270766</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10111,31 +10111,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>437.3469244119842</v>
+        <v>173.532589040146</v>
       </c>
       <c r="O29" t="n">
-        <v>342.8832442952316</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10190,10 +10190,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>90.21717912111404</v>
       </c>
       <c r="K30" t="n">
-        <v>130.1791306811643</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10214,7 +10214,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>5.559718251270766</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,25 +10348,25 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>437.3469244119842</v>
+        <v>124.8798941299337</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>16.19913885213219</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
         <v>212.3149906599047</v>
@@ -10427,10 +10427,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>90.21717912111404</v>
       </c>
       <c r="K33" t="n">
-        <v>130.1791306811643</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10451,7 +10451,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>5.559718251270766</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10585,31 +10585,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>111.3823880527571</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>25.3009829667657</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10664,10 +10664,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>90.21717912111424</v>
       </c>
       <c r="K36" t="n">
-        <v>130.1791306811641</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10688,7 +10688,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>5.559718251270766</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10822,31 +10822,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>111.3823880527574</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>430.7955884363686</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10901,10 +10901,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>90.21717912111424</v>
       </c>
       <c r="K39" t="n">
-        <v>130.1791306811645</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10925,7 +10925,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>5.559718251270766</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11059,31 +11059,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>111.3823880527579</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>442.962197517217</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11138,7 +11138,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11150,7 +11150,7 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>130.1791306811642</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -11159,7 +11159,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>4.088095340755672</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>5.559718251270766</v>
@@ -11296,28 +11296,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>40.93375599222134</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>111.3823880527575</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11375,7 +11375,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>90.21717912111421</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11387,7 +11387,7 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>130.1791306811642</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -11399,7 +11399,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>5.559718251270766</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -24600,19 +24600,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>136.9981324274114</v>
       </c>
       <c r="G28" t="n">
         <v>166.0989510678307</v>
@@ -24621,7 +24621,7 @@
         <v>145.4053209780371</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>98.55202415091549</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>92.22091932765578</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>191.043705008481</v>
       </c>
       <c r="T28" t="n">
-        <v>99.74243751454128</v>
+        <v>219.8614685501433</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24855,10 +24855,10 @@
         <v>166.0989510678307</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>145.4053209780371</v>
       </c>
       <c r="I31" t="n">
-        <v>26.56310514048349</v>
+        <v>98.55202415091549</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24903,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>181.022393545563</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>176.6530130965039</v>
+        <v>176.6530130965041</v>
       </c>
       <c r="C34" t="n">
-        <v>164.0678540131945</v>
+        <v>164.0678540131946</v>
       </c>
       <c r="D34" t="n">
-        <v>145.436505932779</v>
+        <v>145.4365059327791</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>142.242080937498</v>
       </c>
       <c r="G34" t="n">
-        <v>162.9199839823973</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>74.10882343904669</v>
+        <v>142.2263538926039</v>
       </c>
       <c r="I34" t="n">
-        <v>95.37305706548213</v>
+        <v>95.37305706548227</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>89.04195224222242</v>
+        <v>34.47732279662485</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25140,10 +25140,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>222.5306883036039</v>
       </c>
       <c r="Y34" t="n">
-        <v>215.4056862666614</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>643461.458882683</v>
+        <v>643461.4588826831</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>643461.458882683</v>
+        <v>643461.4588826831</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>643461.458882683</v>
+        <v>643461.4588826831</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>638674.8579298049</v>
+        <v>638674.8579298048</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>643461.458882683</v>
+        <v>643461.4588826831</v>
       </c>
     </row>
     <row r="14">
@@ -26319,22 +26319,22 @@
         <v>821041.7698642835</v>
       </c>
       <c r="D2" t="n">
+        <v>821041.7698642835</v>
+      </c>
+      <c r="E2" t="n">
+        <v>821041.7698642847</v>
+      </c>
+      <c r="F2" t="n">
         <v>821041.7698642834</v>
       </c>
-      <c r="E2" t="n">
-        <v>821041.7698642848</v>
-      </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>821041.7698642847</v>
+      </c>
+      <c r="H2" t="n">
         <v>821041.7698642845</v>
       </c>
-      <c r="G2" t="n">
-        <v>821041.7698642835</v>
-      </c>
-      <c r="H2" t="n">
-        <v>821041.7698642848</v>
-      </c>
       <c r="I2" t="n">
-        <v>821041.7698642839</v>
+        <v>821041.7698642845</v>
       </c>
       <c r="J2" t="n">
         <v>792270.6659955952</v>
@@ -26343,19 +26343,19 @@
         <v>792270.6659955954</v>
       </c>
       <c r="L2" t="n">
-        <v>794089.6048393655</v>
+        <v>794089.6048393656</v>
       </c>
       <c r="M2" t="n">
-        <v>821041.7698642847</v>
+        <v>821041.7698642843</v>
       </c>
       <c r="N2" t="n">
-        <v>821041.7698642834</v>
+        <v>821041.7698642837</v>
       </c>
       <c r="O2" t="n">
-        <v>821041.7698642845</v>
+        <v>821041.7698642835</v>
       </c>
       <c r="P2" t="n">
-        <v>821041.7698642842</v>
+        <v>821041.7698642843</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>3816.800192285602</v>
       </c>
       <c r="E3" t="n">
-        <v>1174709.956973789</v>
+        <v>1174709.956973788</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>54692.37762247668</v>
+        <v>54692.3776224768</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>2543.173668346689</v>
+        <v>2543.173668346571</v>
       </c>
       <c r="M3" t="n">
-        <v>235797.0900753146</v>
+        <v>235797.0900753147</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,40 +26426,40 @@
         <v>400529.7967627071</v>
       </c>
       <c r="E4" t="n">
-        <v>79083.79279145971</v>
+        <v>79083.79279145969</v>
       </c>
       <c r="F4" t="n">
+        <v>79083.79279145969</v>
+      </c>
+      <c r="G4" t="n">
+        <v>79083.79279145968</v>
+      </c>
+      <c r="H4" t="n">
         <v>79083.79279145972</v>
       </c>
-      <c r="G4" t="n">
-        <v>79083.79279145971</v>
-      </c>
-      <c r="H4" t="n">
-        <v>79083.79279145971</v>
-      </c>
       <c r="I4" t="n">
+        <v>79083.79279145972</v>
+      </c>
+      <c r="J4" t="n">
+        <v>45263.40956890836</v>
+      </c>
+      <c r="K4" t="n">
+        <v>45263.40956890836</v>
+      </c>
+      <c r="L4" t="n">
+        <v>47405.08453969612</v>
+      </c>
+      <c r="M4" t="n">
+        <v>79083.79279145969</v>
+      </c>
+      <c r="N4" t="n">
+        <v>79083.79279145972</v>
+      </c>
+      <c r="O4" t="n">
         <v>79083.79279145974</v>
       </c>
-      <c r="J4" t="n">
-        <v>45263.40956890835</v>
-      </c>
-      <c r="K4" t="n">
-        <v>45263.40956890834</v>
-      </c>
-      <c r="L4" t="n">
-        <v>47405.08453969627</v>
-      </c>
-      <c r="M4" t="n">
-        <v>79083.79279145968</v>
-      </c>
-      <c r="N4" t="n">
-        <v>79083.79279145971</v>
-      </c>
-      <c r="O4" t="n">
-        <v>79083.79279145971</v>
-      </c>
       <c r="P4" t="n">
-        <v>79083.79279145971</v>
+        <v>79083.79279145974</v>
       </c>
     </row>
     <row r="5">
@@ -26493,10 +26493,10 @@
         <v>88144.53292105588</v>
       </c>
       <c r="J5" t="n">
-        <v>95696.0936925104</v>
+        <v>95696.09369251042</v>
       </c>
       <c r="K5" t="n">
-        <v>95696.0936925104</v>
+        <v>95696.09369251042</v>
       </c>
       <c r="L5" t="n">
         <v>95216.27918150868</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>378828.9168062981</v>
+        <v>378828.916806298</v>
       </c>
       <c r="C6" t="n">
-        <v>383957.2161105827</v>
+        <v>383957.2161105826</v>
       </c>
       <c r="D6" t="n">
-        <v>381390.0993734635</v>
+        <v>381390.0993734636</v>
       </c>
       <c r="E6" t="n">
-        <v>-520896.5128220194</v>
+        <v>-520896.5128220193</v>
       </c>
       <c r="F6" t="n">
+        <v>653813.4441517678</v>
+      </c>
+      <c r="G6" t="n">
         <v>653813.444151769</v>
       </c>
-      <c r="G6" t="n">
+      <c r="H6" t="n">
+        <v>653813.4441517689</v>
+      </c>
+      <c r="I6" t="n">
+        <v>653813.4441517689</v>
+      </c>
+      <c r="J6" t="n">
+        <v>595899.5075149824</v>
+      </c>
+      <c r="K6" t="n">
+        <v>650591.8851374594</v>
+      </c>
+      <c r="L6" t="n">
+        <v>648251.2633241912</v>
+      </c>
+      <c r="M6" t="n">
+        <v>418016.354076454</v>
+      </c>
+      <c r="N6" t="n">
+        <v>653813.4441517681</v>
+      </c>
+      <c r="O6" t="n">
         <v>653813.4441517679</v>
       </c>
-      <c r="H6" t="n">
-        <v>653813.4441517692</v>
-      </c>
-      <c r="I6" t="n">
-        <v>653813.4441517682</v>
-      </c>
-      <c r="J6" t="n">
-        <v>596618.7851116997</v>
-      </c>
-      <c r="K6" t="n">
-        <v>651311.1627341766</v>
-      </c>
-      <c r="L6" t="n">
-        <v>648925.0674498138</v>
-      </c>
-      <c r="M6" t="n">
-        <v>418016.3540764544</v>
-      </c>
-      <c r="N6" t="n">
-        <v>653813.4441517678</v>
-      </c>
-      <c r="O6" t="n">
-        <v>653813.4441517689</v>
-      </c>
       <c r="P6" t="n">
-        <v>653813.4441517686</v>
+        <v>653813.4441517687</v>
       </c>
     </row>
   </sheetData>
@@ -26694,10 +26694,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>50.28337952286363</v>
+        <v>50.28337952286361</v>
       </c>
       <c r="F2" t="n">
-        <v>50.28337952286363</v>
+        <v>50.28337952286361</v>
       </c>
       <c r="G2" t="n">
         <v>50.28337952286363</v>
@@ -26715,7 +26715,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>3.178967085433362</v>
+        <v>3.178967085433214</v>
       </c>
       <c r="M2" t="n">
         <v>50.28337952286361</v>
@@ -26724,10 +26724,10 @@
         <v>50.28337952286361</v>
       </c>
       <c r="O2" t="n">
-        <v>50.28337952286361</v>
+        <v>50.28337952286363</v>
       </c>
       <c r="P2" t="n">
-        <v>50.28337952286361</v>
+        <v>50.28337952286363</v>
       </c>
     </row>
     <row r="3">
@@ -26798,31 +26798,31 @@
         <v>27.59002526031614</v>
       </c>
       <c r="E4" t="n">
-        <v>1004.019037499563</v>
+        <v>1004.019037499564</v>
       </c>
       <c r="F4" t="n">
-        <v>1004.019037499563</v>
+        <v>1004.019037499564</v>
       </c>
       <c r="G4" t="n">
-        <v>1004.019037499563</v>
+        <v>1004.019037499564</v>
       </c>
       <c r="H4" t="n">
         <v>1004.019037499563</v>
       </c>
       <c r="I4" t="n">
+        <v>1004.019037499563</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1197.749863232494</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1197.749863232494</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1185.462575487313</v>
+      </c>
+      <c r="M4" t="n">
         <v>1004.019037499564</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1197.749863232493</v>
-      </c>
-      <c r="K4" t="n">
-        <v>1197.749863232493</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1185.462575487312</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1004.019037499563</v>
       </c>
       <c r="N4" t="n">
         <v>1004.019037499564</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>50.28337952286363</v>
+        <v>50.28337952286361</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26937,10 +26937,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>3.178967085433362</v>
+        <v>3.178967085433214</v>
       </c>
       <c r="M2" t="n">
-        <v>47.10441243743025</v>
+        <v>47.1044124374304</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27020,10 +27020,10 @@
         <v>12.28728774518109</v>
       </c>
       <c r="E4" t="n">
-        <v>976.4290122392473</v>
+        <v>976.4290122392474</v>
       </c>
       <c r="F4" t="n">
-        <v>-2.343575298322326e-13</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>209.0335632480649</v>
+        <v>209.0335632480653</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>50.28337952286363</v>
+        <v>50.28337952286361</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>12.28728774518109</v>
       </c>
       <c r="M4" t="n">
-        <v>976.4290122392473</v>
+        <v>976.4290122392474</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,16 +27381,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>349.9701542558725</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>339.3803041055479</v>
+        <v>351.1950896318968</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>393.3973945383805</v>
+        <v>391.5733082265764</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27423,10 +27423,10 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>134.5663804260146</v>
       </c>
       <c r="S2" t="n">
         <v>209.0200695862453</v>
@@ -27475,7 +27475,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>96.93270672136141</v>
       </c>
       <c r="I3" t="n">
         <v>74.09389533628003</v>
@@ -27511,16 +27511,16 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>187.4326688177485</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>220.0685272723522</v>
       </c>
       <c r="W3" t="n">
-        <v>236.3922456457846</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -27545,22 +27545,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>132.9553114432382</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>130.1183105077962</v>
       </c>
       <c r="G4" t="n">
-        <v>167.9909793584588</v>
+        <v>152.6882418433237</v>
       </c>
       <c r="H4" t="n">
-        <v>162.2271725074396</v>
+        <v>146.9244349923045</v>
       </c>
       <c r="I4" t="n">
-        <v>140.1477374121232</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>82.60196964844833</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
         <v>22.26949182588285</v>
@@ -27578,10 +27578,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>70.85930573655934</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
         <v>177.2933913771695</v>
@@ -27602,7 +27602,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>210.4069178739021</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27624,10 +27624,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>375.0889699229531</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>391.5733082265764</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27639,7 +27639,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27663,13 +27663,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>134.5663804260146</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>211.1812058019216</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
         <v>251.3456529078365</v>
@@ -27706,16 +27706,16 @@
         <v>142.3423429402659</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>129.7664748782488</v>
       </c>
       <c r="G6" t="n">
-        <v>124.6114572861376</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>74.09389533628003</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,13 +27742,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>87.42577427557005</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>184.8619911796866</v>
       </c>
       <c r="U6" t="n">
         <v>225.9413820809748</v>
@@ -27763,7 +27763,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>190.3799582621693</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27776,7 +27776,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>151.9440835834928</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27794,10 +27794,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>155.4504749272583</v>
+        <v>140.1477374121232</v>
       </c>
       <c r="J7" t="n">
-        <v>78.05644260153773</v>
+        <v>82.60196964844833</v>
       </c>
       <c r="K7" t="n">
         <v>22.26949182588285</v>
@@ -27818,16 +27818,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>70.85930573655934</v>
       </c>
       <c r="R7" t="n">
-        <v>177.2933913771695</v>
+        <v>161.9906538620344</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
       </c>
       <c r="T7" t="n">
-        <v>217.1883789600571</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U7" t="n">
         <v>286.3190293564909</v>
@@ -27836,7 +27836,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>271.220260821456</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27864,10 +27864,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>380.2781629617887</v>
+        <v>379.2860204813953</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>387.7127122548189</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
@@ -27876,7 +27876,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27900,19 +27900,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>122.2790926808335</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>195.5058243038152</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>300.1622332098187</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -27921,7 +27921,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>383.8766329759245</v>
       </c>
     </row>
     <row r="9">
@@ -27940,7 +27940,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>134.0903775323723</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
@@ -27949,7 +27949,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>84.64541897618032</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
         <v>61.80660759109894</v>
@@ -27979,13 +27979,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>72.56780889232699</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>172.5747034345055</v>
       </c>
       <c r="U9" t="n">
         <v>225.9413820809748</v>
@@ -27994,10 +27994,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>228.140280237891</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>178.1829599431613</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -28010,13 +28010,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>152.2419549216212</v>
+        <v>154.7841281221011</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>139.6567958383117</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>121.0254477578962</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28034,10 +28034,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>65.76915485635664</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>58.57201799137825</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>157.5660727517666</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
         <v>224.0165980369723</v>
@@ -28089,25 +28089,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>50.28337952286363</v>
+        <v>50.28337952286361</v>
       </c>
       <c r="C11" t="n">
-        <v>50.28337952286363</v>
+        <v>50.28337952286361</v>
       </c>
       <c r="D11" t="n">
-        <v>50.28337952286363</v>
+        <v>50.28337952286361</v>
       </c>
       <c r="E11" t="n">
-        <v>50.28337952286363</v>
+        <v>50.28337952286361</v>
       </c>
       <c r="F11" t="n">
-        <v>50.28337952286363</v>
+        <v>50.28337952286361</v>
       </c>
       <c r="G11" t="n">
-        <v>50.28337952286363</v>
+        <v>50.28337952286361</v>
       </c>
       <c r="H11" t="n">
-        <v>50.28337952286363</v>
+        <v>50.28337952286361</v>
       </c>
       <c r="I11" t="n">
         <v>47.86327518426441</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>50.28337952286363</v>
+        <v>50.28337952286361</v>
       </c>
       <c r="T11" t="n">
-        <v>50.28337952286363</v>
+        <v>50.28337952286361</v>
       </c>
       <c r="U11" t="n">
-        <v>50.28337952286363</v>
+        <v>50.28337952286361</v>
       </c>
       <c r="V11" t="n">
-        <v>50.28337952286363</v>
+        <v>50.28337952286361</v>
       </c>
       <c r="W11" t="n">
-        <v>50.28337952286363</v>
+        <v>50.28337952286361</v>
       </c>
       <c r="X11" t="n">
-        <v>50.28337952286363</v>
+        <v>50.28337952286361</v>
       </c>
       <c r="Y11" t="n">
-        <v>50.28337952286363</v>
+        <v>50.28337952286361</v>
       </c>
     </row>
     <row r="12">
@@ -28247,76 +28247,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>50.28337952286363</v>
+        <v>50.28337952286361</v>
       </c>
       <c r="C13" t="n">
-        <v>50.28337952286363</v>
+        <v>50.28337952286361</v>
       </c>
       <c r="D13" t="n">
-        <v>50.28337952286363</v>
+        <v>50.28337952286361</v>
       </c>
       <c r="E13" t="n">
-        <v>50.28337952286363</v>
+        <v>50.28337952286361</v>
       </c>
       <c r="F13" t="n">
-        <v>50.28337952286363</v>
+        <v>50.28337952286361</v>
       </c>
       <c r="G13" t="n">
-        <v>50.28337952286363</v>
+        <v>50.28337952286361</v>
       </c>
       <c r="H13" t="n">
-        <v>50.28337952286363</v>
+        <v>50.28337952286361</v>
       </c>
       <c r="I13" t="n">
-        <v>50.28337952286363</v>
+        <v>50.28337952286361</v>
       </c>
       <c r="J13" t="n">
-        <v>50.28337952286363</v>
+        <v>50.28337952286361</v>
       </c>
       <c r="K13" t="n">
-        <v>50.28337952286363</v>
+        <v>50.28337952286361</v>
       </c>
       <c r="L13" t="n">
-        <v>50.28337952286363</v>
+        <v>50.28337952286361</v>
       </c>
       <c r="M13" t="n">
-        <v>50.28337952286363</v>
+        <v>50.28337952286361</v>
       </c>
       <c r="N13" t="n">
-        <v>50.28337952286363</v>
+        <v>50.28337952286361</v>
       </c>
       <c r="O13" t="n">
-        <v>50.28337952286363</v>
+        <v>50.28337952286361</v>
       </c>
       <c r="P13" t="n">
-        <v>50.28337952286363</v>
+        <v>50.28337952286361</v>
       </c>
       <c r="Q13" t="n">
-        <v>50.28337952286363</v>
+        <v>50.28337952286361</v>
       </c>
       <c r="R13" t="n">
-        <v>50.28337952286363</v>
+        <v>50.28337952286361</v>
       </c>
       <c r="S13" t="n">
-        <v>50.28337952286363</v>
+        <v>50.28337952286361</v>
       </c>
       <c r="T13" t="n">
-        <v>50.28337952286363</v>
+        <v>50.28337952286361</v>
       </c>
       <c r="U13" t="n">
-        <v>50.28337952286363</v>
+        <v>50.28337952286361</v>
       </c>
       <c r="V13" t="n">
-        <v>50.28337952286363</v>
+        <v>50.28337952286361</v>
       </c>
       <c r="W13" t="n">
-        <v>50.28337952286363</v>
+        <v>50.28337952286361</v>
       </c>
       <c r="X13" t="n">
-        <v>50.28337952286363</v>
+        <v>50.28337952286361</v>
       </c>
       <c r="Y13" t="n">
-        <v>50.28337952286363</v>
+        <v>50.28337952286361</v>
       </c>
     </row>
     <row r="14">
@@ -28326,25 +28326,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>50.28337952286363</v>
+        <v>50.28337952286361</v>
       </c>
       <c r="C14" t="n">
-        <v>50.28337952286363</v>
+        <v>50.28337952286361</v>
       </c>
       <c r="D14" t="n">
-        <v>50.28337952286363</v>
+        <v>50.28337952286361</v>
       </c>
       <c r="E14" t="n">
-        <v>50.28337952286363</v>
+        <v>50.28337952286361</v>
       </c>
       <c r="F14" t="n">
-        <v>50.28337952286363</v>
+        <v>50.28337952286361</v>
       </c>
       <c r="G14" t="n">
-        <v>50.28337952286363</v>
+        <v>50.28337952286361</v>
       </c>
       <c r="H14" t="n">
-        <v>50.28337952286363</v>
+        <v>50.28337952286361</v>
       </c>
       <c r="I14" t="n">
         <v>47.86327518426441</v>
@@ -28377,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>50.28337952286363</v>
+        <v>50.28337952286361</v>
       </c>
       <c r="T14" t="n">
-        <v>50.28337952286363</v>
+        <v>50.28337952286361</v>
       </c>
       <c r="U14" t="n">
-        <v>50.28337952286363</v>
+        <v>50.28337952286361</v>
       </c>
       <c r="V14" t="n">
-        <v>50.28337952286363</v>
+        <v>50.28337952286361</v>
       </c>
       <c r="W14" t="n">
-        <v>50.28337952286363</v>
+        <v>50.28337952286361</v>
       </c>
       <c r="X14" t="n">
-        <v>50.28337952286363</v>
+        <v>50.28337952286361</v>
       </c>
       <c r="Y14" t="n">
-        <v>50.28337952286363</v>
+        <v>50.28337952286361</v>
       </c>
     </row>
     <row r="15">
@@ -28484,76 +28484,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>50.28337952286363</v>
+        <v>50.28337952286361</v>
       </c>
       <c r="C16" t="n">
-        <v>50.28337952286363</v>
+        <v>50.28337952286361</v>
       </c>
       <c r="D16" t="n">
-        <v>50.28337952286363</v>
+        <v>50.28337952286361</v>
       </c>
       <c r="E16" t="n">
-        <v>50.28337952286363</v>
+        <v>50.28337952286361</v>
       </c>
       <c r="F16" t="n">
-        <v>50.28337952286363</v>
+        <v>50.28337952286361</v>
       </c>
       <c r="G16" t="n">
-        <v>50.28337952286363</v>
+        <v>50.28337952286361</v>
       </c>
       <c r="H16" t="n">
-        <v>50.28337952286363</v>
+        <v>50.28337952286361</v>
       </c>
       <c r="I16" t="n">
-        <v>50.28337952286363</v>
+        <v>50.28337952286361</v>
       </c>
       <c r="J16" t="n">
-        <v>50.28337952286363</v>
+        <v>50.28337952286361</v>
       </c>
       <c r="K16" t="n">
-        <v>50.28337952286363</v>
+        <v>50.28337952286361</v>
       </c>
       <c r="L16" t="n">
-        <v>50.28337952286363</v>
+        <v>50.28337952286361</v>
       </c>
       <c r="M16" t="n">
-        <v>50.28337952286363</v>
+        <v>50.28337952286361</v>
       </c>
       <c r="N16" t="n">
-        <v>50.28337952286363</v>
+        <v>50.28337952286361</v>
       </c>
       <c r="O16" t="n">
-        <v>50.28337952286363</v>
+        <v>50.28337952286361</v>
       </c>
       <c r="P16" t="n">
-        <v>50.28337952286363</v>
+        <v>50.28337952286361</v>
       </c>
       <c r="Q16" t="n">
-        <v>50.28337952286363</v>
+        <v>50.28337952286361</v>
       </c>
       <c r="R16" t="n">
-        <v>50.28337952286363</v>
+        <v>50.28337952286361</v>
       </c>
       <c r="S16" t="n">
-        <v>50.28337952286363</v>
+        <v>50.28337952286361</v>
       </c>
       <c r="T16" t="n">
-        <v>50.28337952286363</v>
+        <v>50.28337952286361</v>
       </c>
       <c r="U16" t="n">
-        <v>50.28337952286363</v>
+        <v>50.28337952286361</v>
       </c>
       <c r="V16" t="n">
-        <v>50.28337952286363</v>
+        <v>50.28337952286361</v>
       </c>
       <c r="W16" t="n">
-        <v>50.28337952286363</v>
+        <v>50.28337952286361</v>
       </c>
       <c r="X16" t="n">
-        <v>50.28337952286363</v>
+        <v>50.28337952286361</v>
       </c>
       <c r="Y16" t="n">
-        <v>50.28337952286363</v>
+        <v>50.28337952286361</v>
       </c>
     </row>
     <row r="17">
@@ -28572,7 +28572,7 @@
         <v>50.28337952286363</v>
       </c>
       <c r="E17" t="n">
-        <v>50.28337952286363</v>
+        <v>50.28337952286279</v>
       </c>
       <c r="F17" t="n">
         <v>50.28337952286363</v>
@@ -28766,7 +28766,7 @@
         <v>50.28337952286363</v>
       </c>
       <c r="Q19" t="n">
-        <v>50.28337952286323</v>
+        <v>50.28337952286363</v>
       </c>
       <c r="R19" t="n">
         <v>50.28337952286363</v>
@@ -28851,7 +28851,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>50.28337952286367</v>
+        <v>50.28337952286363</v>
       </c>
       <c r="T20" t="n">
         <v>50.28337952286363</v>
@@ -28991,7 +28991,7 @@
         <v>50.28337952286363</v>
       </c>
       <c r="M22" t="n">
-        <v>50.28337952286363</v>
+        <v>50.28337952286341</v>
       </c>
       <c r="N22" t="n">
         <v>50.28337952286363</v>
@@ -29103,7 +29103,7 @@
         <v>50.28337952286363</v>
       </c>
       <c r="X23" t="n">
-        <v>50.28337952286363</v>
+        <v>50.28337952286375</v>
       </c>
       <c r="Y23" t="n">
         <v>50.28337952286363</v>
@@ -29225,7 +29225,7 @@
         <v>50.28337952286363</v>
       </c>
       <c r="L25" t="n">
-        <v>50.28337952286363</v>
+        <v>50.28337952286347</v>
       </c>
       <c r="M25" t="n">
         <v>50.28337952286363</v>
@@ -29325,7 +29325,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>-2.788529505381393e-13</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -29748,28 +29748,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>3.178967085433362</v>
+        <v>3.178967085433214</v>
       </c>
       <c r="C32" t="n">
-        <v>3.178967085433362</v>
+        <v>3.178967085433214</v>
       </c>
       <c r="D32" t="n">
-        <v>3.178967085433362</v>
+        <v>3.178967085433214</v>
       </c>
       <c r="E32" t="n">
-        <v>3.178967085433362</v>
+        <v>3.178967085433214</v>
       </c>
       <c r="F32" t="n">
-        <v>3.178967085433362</v>
+        <v>3.178967085433214</v>
       </c>
       <c r="G32" t="n">
-        <v>3.178967085433362</v>
+        <v>3.178967085433214</v>
       </c>
       <c r="H32" t="n">
-        <v>3.178967085433362</v>
+        <v>3.178967085433214</v>
       </c>
       <c r="I32" t="n">
-        <v>3.178967085433362</v>
+        <v>3.178967085433214</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29799,25 +29799,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>3.178967085433362</v>
+        <v>3.178967085433214</v>
       </c>
       <c r="T32" t="n">
-        <v>3.178967085433362</v>
+        <v>3.178967085433214</v>
       </c>
       <c r="U32" t="n">
-        <v>3.178967085433362</v>
+        <v>3.178967085433214</v>
       </c>
       <c r="V32" t="n">
-        <v>3.178967085433362</v>
+        <v>3.178967085433214</v>
       </c>
       <c r="W32" t="n">
-        <v>3.178967085433362</v>
+        <v>3.178967085433214</v>
       </c>
       <c r="X32" t="n">
-        <v>3.178967085433362</v>
+        <v>3.178967085433214</v>
       </c>
       <c r="Y32" t="n">
-        <v>3.178967085433362</v>
+        <v>3.178967085433214</v>
       </c>
     </row>
     <row r="33">
@@ -29906,76 +29906,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3.178967085433362</v>
+        <v>3.178967085433214</v>
       </c>
       <c r="C34" t="n">
-        <v>3.178967085433362</v>
+        <v>3.178967085433214</v>
       </c>
       <c r="D34" t="n">
-        <v>3.178967085433362</v>
+        <v>3.178967085433214</v>
       </c>
       <c r="E34" t="n">
-        <v>3.178967085433362</v>
+        <v>3.178967085433214</v>
       </c>
       <c r="F34" t="n">
-        <v>3.178967085433362</v>
+        <v>3.178967085433214</v>
       </c>
       <c r="G34" t="n">
-        <v>3.178967085433362</v>
+        <v>3.178967085433214</v>
       </c>
       <c r="H34" t="n">
-        <v>3.178967085433362</v>
+        <v>3.178967085433214</v>
       </c>
       <c r="I34" t="n">
-        <v>3.178967085433362</v>
+        <v>3.178967085433214</v>
       </c>
       <c r="J34" t="n">
-        <v>3.178967085433362</v>
+        <v>3.178967085433214</v>
       </c>
       <c r="K34" t="n">
-        <v>3.178967085433362</v>
+        <v>3.178967085433214</v>
       </c>
       <c r="L34" t="n">
-        <v>3.178967085433362</v>
+        <v>3.178967085433214</v>
       </c>
       <c r="M34" t="n">
-        <v>3.178967085433362</v>
+        <v>3.178967085433214</v>
       </c>
       <c r="N34" t="n">
-        <v>3.178967085433362</v>
+        <v>3.178967085433214</v>
       </c>
       <c r="O34" t="n">
-        <v>3.178967085433362</v>
+        <v>3.178967085433214</v>
       </c>
       <c r="P34" t="n">
-        <v>3.178967085433362</v>
+        <v>3.178967085433214</v>
       </c>
       <c r="Q34" t="n">
-        <v>3.178967085433362</v>
+        <v>3.178967085433214</v>
       </c>
       <c r="R34" t="n">
-        <v>3.178967085433362</v>
+        <v>3.178967085433214</v>
       </c>
       <c r="S34" t="n">
-        <v>3.178967085433362</v>
+        <v>3.178967085433214</v>
       </c>
       <c r="T34" t="n">
-        <v>3.178967085433362</v>
+        <v>3.178967085433214</v>
       </c>
       <c r="U34" t="n">
-        <v>3.178967085433362</v>
+        <v>3.178967085433214</v>
       </c>
       <c r="V34" t="n">
-        <v>3.178967085433362</v>
+        <v>3.178967085433214</v>
       </c>
       <c r="W34" t="n">
-        <v>3.178967085433362</v>
+        <v>3.178967085433214</v>
       </c>
       <c r="X34" t="n">
-        <v>3.178967085433362</v>
+        <v>3.178967085433214</v>
       </c>
       <c r="Y34" t="n">
-        <v>3.178967085433362</v>
+        <v>3.178967085433214</v>
       </c>
     </row>
     <row r="35">
@@ -30273,7 +30273,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>50.28337952286361</v>
+        <v>50.28337952286412</v>
       </c>
       <c r="T38" t="n">
         <v>50.28337952286361</v>
@@ -30459,25 +30459,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>50.28337952286361</v>
+        <v>50.28337952286363</v>
       </c>
       <c r="C41" t="n">
-        <v>50.28337952286361</v>
+        <v>50.28337952286363</v>
       </c>
       <c r="D41" t="n">
-        <v>50.28337952286361</v>
+        <v>50.28337952286363</v>
       </c>
       <c r="E41" t="n">
-        <v>50.28337952286361</v>
+        <v>50.28337952286363</v>
       </c>
       <c r="F41" t="n">
-        <v>50.28337952286361</v>
+        <v>50.28337952286363</v>
       </c>
       <c r="G41" t="n">
-        <v>50.28337952286361</v>
+        <v>50.28337952286363</v>
       </c>
       <c r="H41" t="n">
-        <v>50.28337952286361</v>
+        <v>50.28337952286363</v>
       </c>
       <c r="I41" t="n">
         <v>47.86327518426441</v>
@@ -30510,25 +30510,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>50.28337952286361</v>
+        <v>50.28337952286363</v>
       </c>
       <c r="T41" t="n">
-        <v>50.28337952286361</v>
+        <v>50.28337952286363</v>
       </c>
       <c r="U41" t="n">
-        <v>50.28337952286361</v>
+        <v>50.28337952286363</v>
       </c>
       <c r="V41" t="n">
-        <v>50.28337952286361</v>
+        <v>50.28337952286363</v>
       </c>
       <c r="W41" t="n">
-        <v>50.28337952286361</v>
+        <v>50.28337952286363</v>
       </c>
       <c r="X41" t="n">
-        <v>50.28337952286361</v>
+        <v>50.28337952286363</v>
       </c>
       <c r="Y41" t="n">
-        <v>50.28337952286361</v>
+        <v>50.28337952286363</v>
       </c>
     </row>
     <row r="42">
@@ -30617,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>50.28337952286361</v>
+        <v>50.28337952286363</v>
       </c>
       <c r="C43" t="n">
-        <v>50.28337952286361</v>
+        <v>50.28337952286363</v>
       </c>
       <c r="D43" t="n">
-        <v>50.28337952286361</v>
+        <v>50.28337952286363</v>
       </c>
       <c r="E43" t="n">
-        <v>50.28337952286361</v>
+        <v>50.28337952286363</v>
       </c>
       <c r="F43" t="n">
-        <v>50.28337952286361</v>
+        <v>50.28337952286363</v>
       </c>
       <c r="G43" t="n">
-        <v>50.28337952286361</v>
+        <v>50.28337952286363</v>
       </c>
       <c r="H43" t="n">
-        <v>50.28337952286361</v>
+        <v>50.28337952286363</v>
       </c>
       <c r="I43" t="n">
-        <v>50.28337952286361</v>
+        <v>50.28337952286363</v>
       </c>
       <c r="J43" t="n">
-        <v>50.28337952286361</v>
+        <v>50.28337952286363</v>
       </c>
       <c r="K43" t="n">
-        <v>50.28337952286361</v>
+        <v>50.28337952286363</v>
       </c>
       <c r="L43" t="n">
-        <v>50.28337952286361</v>
+        <v>50.28337952286363</v>
       </c>
       <c r="M43" t="n">
-        <v>50.28337952286361</v>
+        <v>50.28337952286363</v>
       </c>
       <c r="N43" t="n">
-        <v>50.28337952286361</v>
+        <v>50.28337952286363</v>
       </c>
       <c r="O43" t="n">
-        <v>50.28337952286361</v>
+        <v>50.28337952286363</v>
       </c>
       <c r="P43" t="n">
-        <v>50.28337952286361</v>
+        <v>50.28337952286363</v>
       </c>
       <c r="Q43" t="n">
-        <v>50.28337952286361</v>
+        <v>50.28337952286363</v>
       </c>
       <c r="R43" t="n">
-        <v>50.28337952286361</v>
+        <v>50.28337952286363</v>
       </c>
       <c r="S43" t="n">
-        <v>50.28337952286361</v>
+        <v>50.28337952286363</v>
       </c>
       <c r="T43" t="n">
-        <v>50.28337952286361</v>
+        <v>50.28337952286363</v>
       </c>
       <c r="U43" t="n">
-        <v>50.28337952286361</v>
+        <v>50.28337952286363</v>
       </c>
       <c r="V43" t="n">
-        <v>50.28337952286361</v>
+        <v>50.28337952286363</v>
       </c>
       <c r="W43" t="n">
-        <v>50.28337952286361</v>
+        <v>50.28337952286363</v>
       </c>
       <c r="X43" t="n">
-        <v>50.28337952286361</v>
+        <v>50.28337952286363</v>
       </c>
       <c r="Y43" t="n">
-        <v>50.28337952286361</v>
+        <v>50.28337952286363</v>
       </c>
     </row>
     <row r="44">
@@ -30696,25 +30696,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>50.28337952286361</v>
+        <v>50.28337952286363</v>
       </c>
       <c r="C44" t="n">
-        <v>50.28337952286361</v>
+        <v>50.28337952286363</v>
       </c>
       <c r="D44" t="n">
-        <v>50.28337952286361</v>
+        <v>50.28337952286363</v>
       </c>
       <c r="E44" t="n">
-        <v>50.28337952286361</v>
+        <v>50.28337952286363</v>
       </c>
       <c r="F44" t="n">
-        <v>50.28337952286361</v>
+        <v>50.28337952286363</v>
       </c>
       <c r="G44" t="n">
-        <v>50.28337952286361</v>
+        <v>50.28337952286363</v>
       </c>
       <c r="H44" t="n">
-        <v>50.28337952286361</v>
+        <v>50.28337952286363</v>
       </c>
       <c r="I44" t="n">
         <v>47.86327518426441</v>
@@ -30747,25 +30747,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>50.28337952286361</v>
+        <v>50.28337952286363</v>
       </c>
       <c r="T44" t="n">
-        <v>50.28337952286361</v>
+        <v>50.28337952286363</v>
       </c>
       <c r="U44" t="n">
-        <v>50.28337952286361</v>
+        <v>50.28337952286363</v>
       </c>
       <c r="V44" t="n">
-        <v>50.28337952286361</v>
+        <v>50.28337952286363</v>
       </c>
       <c r="W44" t="n">
-        <v>50.28337952286361</v>
+        <v>50.28337952286363</v>
       </c>
       <c r="X44" t="n">
-        <v>50.28337952286361</v>
+        <v>50.28337952286363</v>
       </c>
       <c r="Y44" t="n">
-        <v>50.28337952286361</v>
+        <v>50.28337952286363</v>
       </c>
     </row>
     <row r="45">
@@ -30854,76 +30854,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>50.28337952286361</v>
+        <v>50.28337952286363</v>
       </c>
       <c r="C46" t="n">
-        <v>50.28337952286361</v>
+        <v>50.28337952286363</v>
       </c>
       <c r="D46" t="n">
-        <v>50.28337952286361</v>
+        <v>50.28337952286363</v>
       </c>
       <c r="E46" t="n">
-        <v>50.28337952286361</v>
+        <v>50.28337952286363</v>
       </c>
       <c r="F46" t="n">
-        <v>50.28337952286361</v>
+        <v>50.28337952286363</v>
       </c>
       <c r="G46" t="n">
-        <v>50.28337952286361</v>
+        <v>50.28337952286363</v>
       </c>
       <c r="H46" t="n">
-        <v>50.28337952286361</v>
+        <v>50.28337952286363</v>
       </c>
       <c r="I46" t="n">
-        <v>50.28337952286361</v>
+        <v>50.28337952286363</v>
       </c>
       <c r="J46" t="n">
-        <v>50.28337952286361</v>
+        <v>50.28337952286363</v>
       </c>
       <c r="K46" t="n">
-        <v>50.28337952286361</v>
+        <v>50.28337952286363</v>
       </c>
       <c r="L46" t="n">
-        <v>50.28337952286361</v>
+        <v>50.28337952286363</v>
       </c>
       <c r="M46" t="n">
-        <v>50.28337952286361</v>
+        <v>50.28337952286363</v>
       </c>
       <c r="N46" t="n">
-        <v>50.28337952286361</v>
+        <v>50.28337952286363</v>
       </c>
       <c r="O46" t="n">
-        <v>50.28337952286361</v>
+        <v>50.28337952286363</v>
       </c>
       <c r="P46" t="n">
-        <v>50.28337952286361</v>
+        <v>50.28337952286363</v>
       </c>
       <c r="Q46" t="n">
-        <v>50.28337952286361</v>
+        <v>50.28337952286363</v>
       </c>
       <c r="R46" t="n">
-        <v>50.28337952286361</v>
+        <v>50.28337952286363</v>
       </c>
       <c r="S46" t="n">
-        <v>50.28337952286361</v>
+        <v>50.28337952286363</v>
       </c>
       <c r="T46" t="n">
-        <v>50.28337952286361</v>
+        <v>50.28337952286363</v>
       </c>
       <c r="U46" t="n">
-        <v>50.28337952286361</v>
+        <v>50.28337952286363</v>
       </c>
       <c r="V46" t="n">
-        <v>50.28337952286361</v>
+        <v>50.28337952286363</v>
       </c>
       <c r="W46" t="n">
-        <v>50.28337952286361</v>
+        <v>50.28337952286363</v>
       </c>
       <c r="X46" t="n">
-        <v>50.28337952286361</v>
+        <v>50.28337952286363</v>
       </c>
       <c r="Y46" t="n">
-        <v>50.28337952286361</v>
+        <v>50.28337952286363</v>
       </c>
     </row>
   </sheetData>
@@ -34704,19 +34704,19 @@
         <v>15.30273751513505</v>
       </c>
       <c r="L2" t="n">
-        <v>14.68444509028111</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="M2" t="n">
         <v>15.30273751513505</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>14.68444509028111</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="L3" t="n">
         <v>15.30273751513505</v>
       </c>
       <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
         <v>14.68444509028111</v>
       </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
+      <c r="Q3" t="n">
         <v>15.30273751513505</v>
-      </c>
-      <c r="P3" t="n">
-        <v>15.30273751513505</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34941,19 +34941,19 @@
         <v>15.30273751513505</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>14.68444509028111</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>14.68444509028111</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="O5" t="n">
         <v>15.30273751513505</v>
       </c>
       <c r="P5" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35017,19 +35017,19 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>14.68444509028111</v>
+      </c>
+      <c r="O6" t="n">
         <v>15.30273751513505</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>14.68444509028111</v>
       </c>
       <c r="P6" t="n">
         <v>15.30273751513505</v>
@@ -35105,10 +35105,10 @@
         <v>15.30273751513505</v>
       </c>
       <c r="N7" t="n">
+        <v>14.68444509028111</v>
+      </c>
+      <c r="O7" t="n">
         <v>15.30273751513505</v>
-      </c>
-      <c r="O7" t="n">
-        <v>14.68444509028111</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -35184,10 +35184,10 @@
         <v>26.47527676494984</v>
       </c>
       <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
         <v>27.59002526031614</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>27.59002526031614</v>
@@ -35254,16 +35254,16 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="L9" t="n">
-        <v>26.47527676494984</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M9" t="n">
         <v>27.59002526031614</v>
       </c>
       <c r="N9" t="n">
-        <v>27.59002526031614</v>
+        <v>26.47527676494983</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -35272,7 +35272,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>176.9475428569017</v>
+        <v>346.0441580289755</v>
       </c>
       <c r="K11" t="n">
-        <v>640.5949389263824</v>
+        <v>640.1469050678794</v>
       </c>
       <c r="L11" t="n">
         <v>429.8581267521066</v>
       </c>
       <c r="M11" t="n">
-        <v>959.802855050089</v>
+        <v>510.2893215572565</v>
       </c>
       <c r="N11" t="n">
-        <v>629.8569246401883</v>
+        <v>523.2067487749853</v>
       </c>
       <c r="O11" t="n">
         <v>480.579335615548</v>
       </c>
       <c r="P11" t="n">
-        <v>375.3138485348575</v>
+        <v>697.1125567063402</v>
       </c>
       <c r="Q11" t="n">
         <v>233.1857299243037</v>
       </c>
       <c r="R11" t="n">
-        <v>49.37042194031852</v>
+        <v>115.086841813301</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>86.3808180943621</v>
+        <v>212.4718534347709</v>
       </c>
       <c r="K12" t="n">
         <v>226.5828440564565</v>
@@ -35500,7 +35500,7 @@
         <v>429.6885162773517</v>
       </c>
       <c r="N12" t="n">
-        <v>455.6152795087119</v>
+        <v>459.7033748494674</v>
       </c>
       <c r="O12" t="n">
         <v>394.3547315061394</v>
@@ -35509,7 +35509,7 @@
         <v>296.9760892202582</v>
       </c>
       <c r="Q12" t="n">
-        <v>278.2763509001878</v>
+        <v>148.0972202190238</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>90.6905995535965</v>
+        <v>90.69059955359648</v>
       </c>
       <c r="K13" t="n">
         <v>247.8331745535892</v>
@@ -35646,7 +35646,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>176.9475428569017</v>
+        <v>346.0441580289755</v>
       </c>
       <c r="K14" t="n">
         <v>640.5949389263824</v>
@@ -35664,13 +35664,13 @@
         <v>480.579335615548</v>
       </c>
       <c r="P14" t="n">
-        <v>697.1125567063402</v>
+        <v>696.664522847837</v>
       </c>
       <c r="Q14" t="n">
-        <v>445.5007205842084</v>
+        <v>233.1857299243037</v>
       </c>
       <c r="R14" t="n">
-        <v>71.42043246696694</v>
+        <v>115.086841813301</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>212.4718534347709</v>
+        <v>176.5979972154763</v>
       </c>
       <c r="K15" t="n">
         <v>226.5828440564565</v>
@@ -35746,10 +35746,10 @@
         <v>296.9760892202582</v>
       </c>
       <c r="Q15" t="n">
-        <v>152.185315559779</v>
+        <v>148.0972202190238</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>39.96195156005005</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>90.6905995535965</v>
+        <v>90.69059955359648</v>
       </c>
       <c r="K16" t="n">
         <v>247.8331745535892</v>
@@ -35883,19 +35883,19 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.081916742819</v>
+        <v>176.9475428569017</v>
       </c>
       <c r="K17" t="n">
         <v>316.4495263552176</v>
       </c>
       <c r="L17" t="n">
-        <v>847.519341302557</v>
+        <v>429.8581267521066</v>
       </c>
       <c r="M17" t="n">
         <v>959.802855050089</v>
       </c>
       <c r="N17" t="n">
-        <v>523.2067487749853</v>
+        <v>954.0023372113534</v>
       </c>
       <c r="O17" t="n">
         <v>480.579335615548</v>
@@ -35962,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>86.3808180943621</v>
+        <v>176.5979972154763</v>
       </c>
       <c r="K18" t="n">
         <v>226.5828440564565</v>
@@ -35983,10 +35983,10 @@
         <v>296.9760892202582</v>
       </c>
       <c r="Q18" t="n">
-        <v>278.2763509001878</v>
+        <v>148.0972202190238</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>39.96195156005005</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36062,7 +36062,7 @@
         <v>276.3941604106302</v>
       </c>
       <c r="Q19" t="n">
-        <v>122.5529052254897</v>
+        <v>122.5529052254901</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,28 +36120,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>176.9475428569017</v>
+        <v>346.0441580289755</v>
       </c>
       <c r="K20" t="n">
-        <v>316.4495263552176</v>
+        <v>427.8319144079747</v>
       </c>
       <c r="L20" t="n">
-        <v>847.519341302557</v>
+        <v>429.8581267521066</v>
       </c>
       <c r="M20" t="n">
         <v>510.2893215572565</v>
       </c>
       <c r="N20" t="n">
-        <v>920.1382362807525</v>
+        <v>523.2067487749853</v>
       </c>
       <c r="O20" t="n">
         <v>480.579335615548</v>
       </c>
       <c r="P20" t="n">
-        <v>375.3138485348575</v>
+        <v>697.1125567063402</v>
       </c>
       <c r="Q20" t="n">
-        <v>233.1857299243037</v>
+        <v>445.5007205842084</v>
       </c>
       <c r="R20" t="n">
         <v>115.086841813301</v>
@@ -36199,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>86.3808180943621</v>
+        <v>176.5979972154759</v>
       </c>
       <c r="K21" t="n">
         <v>226.5828440564565</v>
@@ -36220,10 +36220,10 @@
         <v>296.9760892202582</v>
       </c>
       <c r="Q21" t="n">
-        <v>278.2763509001878</v>
+        <v>148.0972202190238</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>39.96195156005005</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36287,7 +36287,7 @@
         <v>359.1664108280135</v>
       </c>
       <c r="M22" t="n">
-        <v>386.4512911692503</v>
+        <v>386.4512911692501</v>
       </c>
       <c r="N22" t="n">
         <v>383.9474811397521</v>
@@ -36357,28 +36357,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>176.9475428569017</v>
+        <v>346.0441580289755</v>
       </c>
       <c r="K23" t="n">
         <v>316.4495263552176</v>
       </c>
       <c r="L23" t="n">
-        <v>429.8581267521066</v>
+        <v>847.519341302557</v>
       </c>
       <c r="M23" t="n">
-        <v>953.2515190744734</v>
+        <v>510.2893215572565</v>
       </c>
       <c r="N23" t="n">
-        <v>960.5536731869694</v>
+        <v>523.2067487749853</v>
       </c>
       <c r="O23" t="n">
         <v>480.579335615548</v>
       </c>
       <c r="P23" t="n">
-        <v>375.3138485348575</v>
+        <v>456.5501500816293</v>
       </c>
       <c r="Q23" t="n">
-        <v>233.1857299243037</v>
+        <v>445.5007205842084</v>
       </c>
       <c r="R23" t="n">
         <v>49.37042194031852</v>
@@ -36436,10 +36436,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>86.3808180943621</v>
+        <v>176.5979972154759</v>
       </c>
       <c r="K24" t="n">
-        <v>356.761974737621</v>
+        <v>226.5828440564565</v>
       </c>
       <c r="L24" t="n">
         <v>351.4590415048726</v>
@@ -36460,7 +36460,7 @@
         <v>148.0972202190238</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>39.96195156005005</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36521,7 +36521,7 @@
         <v>247.8331745535892</v>
       </c>
       <c r="L25" t="n">
-        <v>359.1664108280135</v>
+        <v>359.1664108280133</v>
       </c>
       <c r="M25" t="n">
         <v>386.4512911692503</v>
@@ -36597,7 +36597,7 @@
         <v>176.9475428569017</v>
       </c>
       <c r="K26" t="n">
-        <v>640.5949389263824</v>
+        <v>316.4495263552176</v>
       </c>
       <c r="L26" t="n">
         <v>847.519341302557</v>
@@ -36606,16 +36606,16 @@
         <v>959.802855050089</v>
       </c>
       <c r="N26" t="n">
-        <v>523.2067487749853</v>
+        <v>960.5536731869694</v>
       </c>
       <c r="O26" t="n">
-        <v>861.3795168782933</v>
+        <v>480.579335615548</v>
       </c>
       <c r="P26" t="n">
-        <v>384.8820035351815</v>
+        <v>440.1656822972034</v>
       </c>
       <c r="Q26" t="n">
-        <v>233.1857299243037</v>
+        <v>445.5007205842084</v>
       </c>
       <c r="R26" t="n">
         <v>115.086841813301</v>
@@ -36673,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>86.3808180943621</v>
+        <v>176.5979972154761</v>
       </c>
       <c r="K27" t="n">
         <v>226.5828440564565</v>
@@ -36685,7 +36685,7 @@
         <v>429.6885162773517</v>
       </c>
       <c r="N27" t="n">
-        <v>585.7944101898761</v>
+        <v>455.6152795087119</v>
       </c>
       <c r="O27" t="n">
         <v>394.3547315061394</v>
@@ -36697,7 +36697,7 @@
         <v>148.0972202190238</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>39.96195156005005</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>176.9475428569017</v>
+        <v>346.0441580289755</v>
       </c>
       <c r="K29" t="n">
-        <v>316.4495263552176</v>
+        <v>640.5949389263824</v>
       </c>
       <c r="L29" t="n">
-        <v>847.519341302557</v>
+        <v>429.8581267521066</v>
       </c>
       <c r="M29" t="n">
-        <v>959.802855050089</v>
+        <v>510.2893215572565</v>
       </c>
       <c r="N29" t="n">
-        <v>960.5536731869694</v>
+        <v>696.7393378151313</v>
       </c>
       <c r="O29" t="n">
-        <v>823.4625799107796</v>
+        <v>861.3795168782933</v>
       </c>
       <c r="P29" t="n">
-        <v>375.3138485348575</v>
+        <v>697.1125567063402</v>
       </c>
       <c r="Q29" t="n">
-        <v>233.1857299243037</v>
+        <v>445.5007205842084</v>
       </c>
       <c r="R29" t="n">
-        <v>49.37042194031852</v>
+        <v>115.086841813301</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,10 +36910,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>86.3808180943621</v>
+        <v>176.5979972154761</v>
       </c>
       <c r="K30" t="n">
-        <v>356.7619747376208</v>
+        <v>226.5828440564565</v>
       </c>
       <c r="L30" t="n">
         <v>351.4590415048726</v>
@@ -36934,7 +36934,7 @@
         <v>148.0972202190238</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>39.96195156005005</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37068,25 +37068,25 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>176.9475428569017</v>
+        <v>346.0441580289755</v>
       </c>
       <c r="K32" t="n">
-        <v>316.4495263552176</v>
+        <v>640.5949389263824</v>
       </c>
       <c r="L32" t="n">
-        <v>847.519341302557</v>
+        <v>429.8581267521066</v>
       </c>
       <c r="M32" t="n">
-        <v>959.802855050089</v>
+        <v>510.2893215572565</v>
       </c>
       <c r="N32" t="n">
-        <v>960.5536731869694</v>
+        <v>648.086642904919</v>
       </c>
       <c r="O32" t="n">
-        <v>480.579335615548</v>
+        <v>861.3795168782933</v>
       </c>
       <c r="P32" t="n">
-        <v>391.5129873869897</v>
+        <v>697.1125567063402</v>
       </c>
       <c r="Q32" t="n">
         <v>445.5007205842084</v>
@@ -37147,10 +37147,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>86.3808180943621</v>
+        <v>176.5979972154761</v>
       </c>
       <c r="K33" t="n">
-        <v>356.7619747376208</v>
+        <v>226.5828440564565</v>
       </c>
       <c r="L33" t="n">
         <v>351.4590415048726</v>
@@ -37171,7 +37171,7 @@
         <v>148.0972202190238</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>39.96195156005005</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>43.58618711616623</v>
+        <v>43.58618711616609</v>
       </c>
       <c r="K34" t="n">
-        <v>200.7287621161589</v>
+        <v>200.7287621161588</v>
       </c>
       <c r="L34" t="n">
-        <v>312.0619983905833</v>
+        <v>312.0619983905831</v>
       </c>
       <c r="M34" t="n">
-        <v>339.3468787318201</v>
+        <v>339.3468787318199</v>
       </c>
       <c r="N34" t="n">
-        <v>336.8430687023218</v>
+        <v>336.8430687023217</v>
       </c>
       <c r="O34" t="n">
-        <v>295.1936937511593</v>
+        <v>295.1936937511591</v>
       </c>
       <c r="P34" t="n">
-        <v>229.2897479731999</v>
+        <v>229.2897479731998</v>
       </c>
       <c r="Q34" t="n">
-        <v>75.44849278805985</v>
+        <v>75.44849278805971</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>176.9475428569017</v>
+        <v>346.0441580289755</v>
       </c>
       <c r="K35" t="n">
         <v>316.4495263552176</v>
       </c>
       <c r="L35" t="n">
-        <v>847.519341302557</v>
+        <v>429.8581267521066</v>
       </c>
       <c r="M35" t="n">
         <v>510.2893215572565</v>
       </c>
       <c r="N35" t="n">
-        <v>960.5536731869694</v>
+        <v>523.2067487749853</v>
       </c>
       <c r="O35" t="n">
-        <v>480.579335615548</v>
+        <v>591.961723668305</v>
       </c>
       <c r="P35" t="n">
-        <v>375.3138485348575</v>
+        <v>697.1125567063402</v>
       </c>
       <c r="Q35" t="n">
-        <v>258.4867128910694</v>
+        <v>445.5007205842084</v>
       </c>
       <c r="R35" t="n">
-        <v>49.37042194031852</v>
+        <v>115.086841813301</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,10 +37384,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>86.3808180943621</v>
+        <v>176.5979972154763</v>
       </c>
       <c r="K36" t="n">
-        <v>356.7619747376205</v>
+        <v>226.5828440564565</v>
       </c>
       <c r="L36" t="n">
         <v>351.4590415048726</v>
@@ -37408,7 +37408,7 @@
         <v>148.0972202190238</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>39.96195156005005</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>176.9475428569017</v>
+        <v>346.0441580289755</v>
       </c>
       <c r="K38" t="n">
-        <v>316.4495263552176</v>
+        <v>427.8319144079751</v>
       </c>
       <c r="L38" t="n">
         <v>429.8581267521066</v>
       </c>
       <c r="M38" t="n">
-        <v>959.802855050089</v>
+        <v>510.2893215572565</v>
       </c>
       <c r="N38" t="n">
-        <v>954.0023372113538</v>
+        <v>523.2067487749853</v>
       </c>
       <c r="O38" t="n">
         <v>480.579335615548</v>
       </c>
       <c r="P38" t="n">
-        <v>375.3138485348575</v>
+        <v>697.1125567063402</v>
       </c>
       <c r="Q38" t="n">
-        <v>233.1857299243037</v>
+        <v>445.5007205842084</v>
       </c>
       <c r="R38" t="n">
-        <v>49.37042194031852</v>
+        <v>115.086841813301</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,10 +37621,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>86.3808180943621</v>
+        <v>176.5979972154763</v>
       </c>
       <c r="K39" t="n">
-        <v>356.761974737621</v>
+        <v>226.5828440564565</v>
       </c>
       <c r="L39" t="n">
         <v>351.4590415048726</v>
@@ -37645,7 +37645,7 @@
         <v>148.0972202190238</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>39.96195156005005</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>176.9475428569017</v>
+        <v>346.0441580289755</v>
       </c>
       <c r="K41" t="n">
-        <v>316.4495263552176</v>
+        <v>427.8319144079755</v>
       </c>
       <c r="L41" t="n">
         <v>429.8581267521066</v>
       </c>
       <c r="M41" t="n">
-        <v>953.2515190744734</v>
+        <v>510.2893215572565</v>
       </c>
       <c r="N41" t="n">
-        <v>960.5536731869694</v>
+        <v>523.2067487749853</v>
       </c>
       <c r="O41" t="n">
         <v>480.579335615548</v>
       </c>
       <c r="P41" t="n">
-        <v>375.3138485348575</v>
+        <v>697.1125567063402</v>
       </c>
       <c r="Q41" t="n">
-        <v>233.1857299243037</v>
+        <v>445.5007205842084</v>
       </c>
       <c r="R41" t="n">
-        <v>49.37042194031852</v>
+        <v>115.086841813301</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>212.4718534347709</v>
+        <v>86.3808180943621</v>
       </c>
       <c r="K42" t="n">
         <v>226.5828440564565</v>
@@ -37870,7 +37870,7 @@
         <v>429.6885162773517</v>
       </c>
       <c r="N42" t="n">
-        <v>455.6152795087119</v>
+        <v>585.7944101898761</v>
       </c>
       <c r="O42" t="n">
         <v>394.3547315061394</v>
@@ -37879,7 +37879,7 @@
         <v>296.9760892202582</v>
       </c>
       <c r="Q42" t="n">
-        <v>152.1853155597795</v>
+        <v>148.0972202190238</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>90.69059955359648</v>
+        <v>90.6905995535965</v>
       </c>
       <c r="K43" t="n">
         <v>247.8331745535892</v>
@@ -38016,28 +38016,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>176.9475428569017</v>
+        <v>346.0441580289755</v>
       </c>
       <c r="K44" t="n">
-        <v>640.5949389263824</v>
+        <v>316.4495263552176</v>
       </c>
       <c r="L44" t="n">
         <v>429.8581267521066</v>
       </c>
       <c r="M44" t="n">
-        <v>959.802855050089</v>
+        <v>510.2893215572565</v>
       </c>
       <c r="N44" t="n">
-        <v>564.1405047672066</v>
+        <v>523.2067487749853</v>
       </c>
       <c r="O44" t="n">
-        <v>480.579335615548</v>
+        <v>591.9617236683055</v>
       </c>
       <c r="P44" t="n">
-        <v>375.3138485348575</v>
+        <v>697.1125567063402</v>
       </c>
       <c r="Q44" t="n">
-        <v>233.1857299243037</v>
+        <v>445.5007205842084</v>
       </c>
       <c r="R44" t="n">
         <v>115.086841813301</v>
@@ -38095,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>86.3808180943621</v>
+        <v>176.5979972154763</v>
       </c>
       <c r="K45" t="n">
         <v>226.5828440564565</v>
@@ -38107,7 +38107,7 @@
         <v>429.6885162773517</v>
       </c>
       <c r="N45" t="n">
-        <v>585.7944101898761</v>
+        <v>455.6152795087119</v>
       </c>
       <c r="O45" t="n">
         <v>394.3547315061394</v>
@@ -38119,7 +38119,7 @@
         <v>148.0972202190238</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>39.96195156005005</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>90.69059955359648</v>
+        <v>90.6905995535965</v>
       </c>
       <c r="K46" t="n">
         <v>247.8331745535892</v>
